--- a/eth.xlsx
+++ b/eth.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1862"/>
+  <dimension ref="A1:L1987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71188,13 +71188,13 @@
         <v>2200000</v>
       </c>
       <c r="E1862" t="n">
-        <v>2229000</v>
+        <v>2218000</v>
       </c>
       <c r="F1862" t="n">
-        <v>19602.35104113</v>
+        <v>26295.8236365</v>
       </c>
       <c r="G1862" t="n">
-        <v>43668919927.77</v>
+        <v>58476358599.08694</v>
       </c>
       <c r="H1862" t="n">
         <v>25000</v>
@@ -71210,6 +71210,4756 @@
       </c>
       <c r="L1862" t="n">
         <v>23.80717798268272</v>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" s="2" t="n">
+        <v>44867.375</v>
+      </c>
+      <c r="B1863" t="n">
+        <v>2215000</v>
+      </c>
+      <c r="C1863" t="n">
+        <v>2285000</v>
+      </c>
+      <c r="D1863" t="n">
+        <v>2136000</v>
+      </c>
+      <c r="E1863" t="n">
+        <v>2157000</v>
+      </c>
+      <c r="F1863" t="n">
+        <v>55494.97503566</v>
+      </c>
+      <c r="G1863" t="n">
+        <v>122484620348.4188</v>
+      </c>
+      <c r="H1863" t="n">
+        <v>74500</v>
+      </c>
+      <c r="I1863" t="n">
+        <v>2240000</v>
+      </c>
+      <c r="J1863" t="n">
+        <v>0.9629464285714285</v>
+      </c>
+      <c r="K1863" t="n">
+        <v>24.95842231228342</v>
+      </c>
+      <c r="L1863" t="n">
+        <v>26.63039415564581</v>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" s="2" t="n">
+        <v>44868.375</v>
+      </c>
+      <c r="B1864" t="n">
+        <v>2157000</v>
+      </c>
+      <c r="C1864" t="n">
+        <v>2207000</v>
+      </c>
+      <c r="D1864" t="n">
+        <v>2156000</v>
+      </c>
+      <c r="E1864" t="n">
+        <v>2176000</v>
+      </c>
+      <c r="F1864" t="n">
+        <v>25689.20587408</v>
+      </c>
+      <c r="G1864" t="n">
+        <v>56130564664.83186</v>
+      </c>
+      <c r="H1864" t="n">
+        <v>25500</v>
+      </c>
+      <c r="I1864" t="n">
+        <v>2231500</v>
+      </c>
+      <c r="J1864" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1864" t="n">
+        <v>24.95842231228342</v>
+      </c>
+      <c r="L1864" t="n">
+        <v>26.63039415564581</v>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" s="2" t="n">
+        <v>44869.375</v>
+      </c>
+      <c r="B1865" t="n">
+        <v>2175000</v>
+      </c>
+      <c r="C1865" t="n">
+        <v>2330000</v>
+      </c>
+      <c r="D1865" t="n">
+        <v>2173000</v>
+      </c>
+      <c r="E1865" t="n">
+        <v>2288000</v>
+      </c>
+      <c r="F1865" t="n">
+        <v>58125.28789819</v>
+      </c>
+      <c r="G1865" t="n">
+        <v>131111476196.0177</v>
+      </c>
+      <c r="H1865" t="n">
+        <v>78500</v>
+      </c>
+      <c r="I1865" t="n">
+        <v>2200500</v>
+      </c>
+      <c r="J1865" t="n">
+        <v>1.039763690070439</v>
+      </c>
+      <c r="K1865" t="n">
+        <v>25.95086128175618</v>
+      </c>
+      <c r="L1865" t="n">
+        <v>23.71294788826067</v>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" s="2" t="n">
+        <v>44870.375</v>
+      </c>
+      <c r="B1866" t="n">
+        <v>2286000</v>
+      </c>
+      <c r="C1866" t="n">
+        <v>2319000</v>
+      </c>
+      <c r="D1866" t="n">
+        <v>2267000</v>
+      </c>
+      <c r="E1866" t="n">
+        <v>2276000</v>
+      </c>
+      <c r="F1866" t="n">
+        <v>25680.01447063</v>
+      </c>
+      <c r="G1866" t="n">
+        <v>58829616868.64788</v>
+      </c>
+      <c r="H1866" t="n">
+        <v>26000</v>
+      </c>
+      <c r="I1866" t="n">
+        <v>2364500</v>
+      </c>
+      <c r="J1866" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1866" t="n">
+        <v>25.95086128175618</v>
+      </c>
+      <c r="L1866" t="n">
+        <v>23.71294788826067</v>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" s="2" t="n">
+        <v>44871.375</v>
+      </c>
+      <c r="B1867" t="n">
+        <v>2276000</v>
+      </c>
+      <c r="C1867" t="n">
+        <v>2291000</v>
+      </c>
+      <c r="D1867" t="n">
+        <v>2207000</v>
+      </c>
+      <c r="E1867" t="n">
+        <v>2213000</v>
+      </c>
+      <c r="F1867" t="n">
+        <v>19443.52880578</v>
+      </c>
+      <c r="G1867" t="n">
+        <v>43871761578.052</v>
+      </c>
+      <c r="H1867" t="n">
+        <v>42000</v>
+      </c>
+      <c r="I1867" t="n">
+        <v>2302000</v>
+      </c>
+      <c r="J1867" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1867" t="n">
+        <v>25.95086128175618</v>
+      </c>
+      <c r="L1867" t="n">
+        <v>23.71294788826067</v>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" s="2" t="n">
+        <v>44872.375</v>
+      </c>
+      <c r="B1868" t="n">
+        <v>2210000</v>
+      </c>
+      <c r="C1868" t="n">
+        <v>2250000</v>
+      </c>
+      <c r="D1868" t="n">
+        <v>2182000</v>
+      </c>
+      <c r="E1868" t="n">
+        <v>2209000</v>
+      </c>
+      <c r="F1868" t="n">
+        <v>32548.57903294</v>
+      </c>
+      <c r="G1868" t="n">
+        <v>72068914556.4595</v>
+      </c>
+      <c r="H1868" t="n">
+        <v>34000</v>
+      </c>
+      <c r="I1868" t="n">
+        <v>2252000</v>
+      </c>
+      <c r="J1868" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1868" t="n">
+        <v>25.95086128175618</v>
+      </c>
+      <c r="L1868" t="n">
+        <v>23.71294788826067</v>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" s="2" t="n">
+        <v>44873.375</v>
+      </c>
+      <c r="B1869" t="n">
+        <v>2206000</v>
+      </c>
+      <c r="C1869" t="n">
+        <v>2216000</v>
+      </c>
+      <c r="D1869" t="n">
+        <v>1860000</v>
+      </c>
+      <c r="E1869" t="n">
+        <v>1917000</v>
+      </c>
+      <c r="F1869" t="n">
+        <v>162725.49897791</v>
+      </c>
+      <c r="G1869" t="n">
+        <v>329776704435.0878</v>
+      </c>
+      <c r="H1869" t="n">
+        <v>178000</v>
+      </c>
+      <c r="I1869" t="n">
+        <v>2240000</v>
+      </c>
+      <c r="J1869" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1869" t="n">
+        <v>25.95086128175618</v>
+      </c>
+      <c r="L1869" t="n">
+        <v>23.71294788826067</v>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" s="2" t="n">
+        <v>44874.375</v>
+      </c>
+      <c r="B1870" t="n">
+        <v>1917000</v>
+      </c>
+      <c r="C1870" t="n">
+        <v>1930000</v>
+      </c>
+      <c r="D1870" t="n">
+        <v>1548500</v>
+      </c>
+      <c r="E1870" t="n">
+        <v>1588500</v>
+      </c>
+      <c r="F1870" t="n">
+        <v>258495.89406217</v>
+      </c>
+      <c r="G1870" t="n">
+        <v>447396296688.3171</v>
+      </c>
+      <c r="H1870" t="n">
+        <v>190750</v>
+      </c>
+      <c r="I1870" t="n">
+        <v>2095000</v>
+      </c>
+      <c r="J1870" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1870" t="n">
+        <v>25.95086128175618</v>
+      </c>
+      <c r="L1870" t="n">
+        <v>23.71294788826067</v>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" s="2" t="n">
+        <v>44875.375</v>
+      </c>
+      <c r="B1871" t="n">
+        <v>1589500</v>
+      </c>
+      <c r="C1871" t="n">
+        <v>1874500</v>
+      </c>
+      <c r="D1871" t="n">
+        <v>1573500</v>
+      </c>
+      <c r="E1871" t="n">
+        <v>1830000</v>
+      </c>
+      <c r="F1871" t="n">
+        <v>208222.15128443</v>
+      </c>
+      <c r="G1871" t="n">
+        <v>361629546486.5822</v>
+      </c>
+      <c r="H1871" t="n">
+        <v>150500</v>
+      </c>
+      <c r="I1871" t="n">
+        <v>1780250</v>
+      </c>
+      <c r="J1871" t="n">
+        <v>1.027945513270608</v>
+      </c>
+      <c r="K1871" t="n">
+        <v>26.6760714200892</v>
+      </c>
+      <c r="L1871" t="n">
+        <v>21.58106706109648</v>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" s="2" t="n">
+        <v>44876.375</v>
+      </c>
+      <c r="B1872" t="n">
+        <v>1832000</v>
+      </c>
+      <c r="C1872" t="n">
+        <v>1854000</v>
+      </c>
+      <c r="D1872" t="n">
+        <v>1675000</v>
+      </c>
+      <c r="E1872" t="n">
+        <v>1788500</v>
+      </c>
+      <c r="F1872" t="n">
+        <v>130043.0206583</v>
+      </c>
+      <c r="G1872" t="n">
+        <v>228754736545.5707</v>
+      </c>
+      <c r="H1872" t="n">
+        <v>89500</v>
+      </c>
+      <c r="I1872" t="n">
+        <v>1982500</v>
+      </c>
+      <c r="J1872" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1872" t="n">
+        <v>26.6760714200892</v>
+      </c>
+      <c r="L1872" t="n">
+        <v>21.58106706109648</v>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" s="2" t="n">
+        <v>44877.375</v>
+      </c>
+      <c r="B1873" t="n">
+        <v>1788000</v>
+      </c>
+      <c r="C1873" t="n">
+        <v>1794500</v>
+      </c>
+      <c r="D1873" t="n">
+        <v>1714500</v>
+      </c>
+      <c r="E1873" t="n">
+        <v>1748500</v>
+      </c>
+      <c r="F1873" t="n">
+        <v>58148.92357943</v>
+      </c>
+      <c r="G1873" t="n">
+        <v>101921770429.8981</v>
+      </c>
+      <c r="H1873" t="n">
+        <v>40000</v>
+      </c>
+      <c r="I1873" t="n">
+        <v>1877500</v>
+      </c>
+      <c r="J1873" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1873" t="n">
+        <v>26.6760714200892</v>
+      </c>
+      <c r="L1873" t="n">
+        <v>21.58106706109648</v>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" s="2" t="n">
+        <v>44878.375</v>
+      </c>
+      <c r="B1874" t="n">
+        <v>1748500</v>
+      </c>
+      <c r="C1874" t="n">
+        <v>1765000</v>
+      </c>
+      <c r="D1874" t="n">
+        <v>1671500</v>
+      </c>
+      <c r="E1874" t="n">
+        <v>1684000</v>
+      </c>
+      <c r="F1874" t="n">
+        <v>64133.016662</v>
+      </c>
+      <c r="G1874" t="n">
+        <v>109712196174.8898</v>
+      </c>
+      <c r="H1874" t="n">
+        <v>46750</v>
+      </c>
+      <c r="I1874" t="n">
+        <v>1788500</v>
+      </c>
+      <c r="J1874" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1874" t="n">
+        <v>26.6760714200892</v>
+      </c>
+      <c r="L1874" t="n">
+        <v>21.58106706109648</v>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" s="2" t="n">
+        <v>44879.375</v>
+      </c>
+      <c r="B1875" t="n">
+        <v>1684500</v>
+      </c>
+      <c r="C1875" t="n">
+        <v>1763500</v>
+      </c>
+      <c r="D1875" t="n">
+        <v>1583000</v>
+      </c>
+      <c r="E1875" t="n">
+        <v>1695500</v>
+      </c>
+      <c r="F1875" t="n">
+        <v>129820.89771468</v>
+      </c>
+      <c r="G1875" t="n">
+        <v>217686342235.9012</v>
+      </c>
+      <c r="H1875" t="n">
+        <v>90250</v>
+      </c>
+      <c r="I1875" t="n">
+        <v>1731250</v>
+      </c>
+      <c r="J1875" t="n">
+        <v>0.9793501805054151</v>
+      </c>
+      <c r="K1875" t="n">
+        <v>26.12521536043971</v>
+      </c>
+      <c r="L1875" t="n">
+        <v>23.2004038712428</v>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" s="2" t="n">
+        <v>44880.375</v>
+      </c>
+      <c r="B1876" t="n">
+        <v>1695500</v>
+      </c>
+      <c r="C1876" t="n">
+        <v>1751000</v>
+      </c>
+      <c r="D1876" t="n">
+        <v>1682000</v>
+      </c>
+      <c r="E1876" t="n">
+        <v>1708500</v>
+      </c>
+      <c r="F1876" t="n">
+        <v>59212.91692913</v>
+      </c>
+      <c r="G1876" t="n">
+        <v>101645852077.5088</v>
+      </c>
+      <c r="H1876" t="n">
+        <v>34500</v>
+      </c>
+      <c r="I1876" t="n">
+        <v>1785750</v>
+      </c>
+      <c r="J1876" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1876" t="n">
+        <v>26.12521536043971</v>
+      </c>
+      <c r="L1876" t="n">
+        <v>23.2004038712428</v>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" s="2" t="n">
+        <v>44881.375</v>
+      </c>
+      <c r="B1877" t="n">
+        <v>1707000</v>
+      </c>
+      <c r="C1877" t="n">
+        <v>1725500</v>
+      </c>
+      <c r="D1877" t="n">
+        <v>1640000</v>
+      </c>
+      <c r="E1877" t="n">
+        <v>1678000</v>
+      </c>
+      <c r="F1877" t="n">
+        <v>53914.82626128</v>
+      </c>
+      <c r="G1877" t="n">
+        <v>90731073957.30714</v>
+      </c>
+      <c r="H1877" t="n">
+        <v>42750</v>
+      </c>
+      <c r="I1877" t="n">
+        <v>1741500</v>
+      </c>
+      <c r="J1877" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1877" t="n">
+        <v>26.12521536043971</v>
+      </c>
+      <c r="L1877" t="n">
+        <v>23.2004038712428</v>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" s="2" t="n">
+        <v>44882.375</v>
+      </c>
+      <c r="B1878" t="n">
+        <v>1675500</v>
+      </c>
+      <c r="C1878" t="n">
+        <v>1687500</v>
+      </c>
+      <c r="D1878" t="n">
+        <v>1630000</v>
+      </c>
+      <c r="E1878" t="n">
+        <v>1654500</v>
+      </c>
+      <c r="F1878" t="n">
+        <v>38325.42284165</v>
+      </c>
+      <c r="G1878" t="n">
+        <v>63485671763.97253</v>
+      </c>
+      <c r="H1878" t="n">
+        <v>28750</v>
+      </c>
+      <c r="I1878" t="n">
+        <v>1718250</v>
+      </c>
+      <c r="J1878" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1878" t="n">
+        <v>26.12521536043971</v>
+      </c>
+      <c r="L1878" t="n">
+        <v>23.2004038712428</v>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" s="2" t="n">
+        <v>44883.375</v>
+      </c>
+      <c r="B1879" t="n">
+        <v>1654000</v>
+      </c>
+      <c r="C1879" t="n">
+        <v>1690000</v>
+      </c>
+      <c r="D1879" t="n">
+        <v>1653500</v>
+      </c>
+      <c r="E1879" t="n">
+        <v>1674000</v>
+      </c>
+      <c r="F1879" t="n">
+        <v>31570.66432163</v>
+      </c>
+      <c r="G1879" t="n">
+        <v>52769972239.42025</v>
+      </c>
+      <c r="H1879" t="n">
+        <v>18250</v>
+      </c>
+      <c r="I1879" t="n">
+        <v>1682750</v>
+      </c>
+      <c r="J1879" t="n">
+        <v>0.9948001782796019</v>
+      </c>
+      <c r="K1879" t="n">
+        <v>25.98936889815841</v>
+      </c>
+      <c r="L1879" t="n">
+        <v>23.59974807931091</v>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" s="2" t="n">
+        <v>44884.375</v>
+      </c>
+      <c r="B1880" t="n">
+        <v>1674000</v>
+      </c>
+      <c r="C1880" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="D1880" t="n">
+        <v>1662500</v>
+      </c>
+      <c r="E1880" t="n">
+        <v>1683500</v>
+      </c>
+      <c r="F1880" t="n">
+        <v>19004.32067435</v>
+      </c>
+      <c r="G1880" t="n">
+        <v>31863911388.30772</v>
+      </c>
+      <c r="H1880" t="n">
+        <v>18750</v>
+      </c>
+      <c r="I1880" t="n">
+        <v>1692250</v>
+      </c>
+      <c r="J1880" t="n">
+        <v>0.9948293691830403</v>
+      </c>
+      <c r="K1880" t="n">
+        <v>25.85498746642026</v>
+      </c>
+      <c r="L1880" t="n">
+        <v>23.99478557631551</v>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" s="2" t="n">
+        <v>44885.375</v>
+      </c>
+      <c r="B1881" t="n">
+        <v>1683500</v>
+      </c>
+      <c r="C1881" t="n">
+        <v>1691500</v>
+      </c>
+      <c r="D1881" t="n">
+        <v>1586500</v>
+      </c>
+      <c r="E1881" t="n">
+        <v>1600500</v>
+      </c>
+      <c r="F1881" t="n">
+        <v>44970.21827324</v>
+      </c>
+      <c r="G1881" t="n">
+        <v>73610745919.7523</v>
+      </c>
+      <c r="H1881" t="n">
+        <v>52500</v>
+      </c>
+      <c r="I1881" t="n">
+        <v>1702250</v>
+      </c>
+      <c r="J1881" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1881" t="n">
+        <v>25.85498746642026</v>
+      </c>
+      <c r="L1881" t="n">
+        <v>23.99478557631551</v>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" s="2" t="n">
+        <v>44886.375</v>
+      </c>
+      <c r="B1882" t="n">
+        <v>1601500</v>
+      </c>
+      <c r="C1882" t="n">
+        <v>1604500</v>
+      </c>
+      <c r="D1882" t="n">
+        <v>1530500</v>
+      </c>
+      <c r="E1882" t="n">
+        <v>1560000</v>
+      </c>
+      <c r="F1882" t="n">
+        <v>58130.11222646</v>
+      </c>
+      <c r="G1882" t="n">
+        <v>91361933631.43307</v>
+      </c>
+      <c r="H1882" t="n">
+        <v>37000</v>
+      </c>
+      <c r="I1882" t="n">
+        <v>1654000</v>
+      </c>
+      <c r="J1882" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1882" t="n">
+        <v>25.85498746642026</v>
+      </c>
+      <c r="L1882" t="n">
+        <v>23.99478557631551</v>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" s="2" t="n">
+        <v>44887.375</v>
+      </c>
+      <c r="B1883" t="n">
+        <v>1560000</v>
+      </c>
+      <c r="C1883" t="n">
+        <v>1593000</v>
+      </c>
+      <c r="D1883" t="n">
+        <v>1516500</v>
+      </c>
+      <c r="E1883" t="n">
+        <v>1586000</v>
+      </c>
+      <c r="F1883" t="n">
+        <v>63393.44471679</v>
+      </c>
+      <c r="G1883" t="n">
+        <v>98663890597.92409</v>
+      </c>
+      <c r="H1883" t="n">
+        <v>38250</v>
+      </c>
+      <c r="I1883" t="n">
+        <v>1597000</v>
+      </c>
+      <c r="J1883" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1883" t="n">
+        <v>25.85498746642026</v>
+      </c>
+      <c r="L1883" t="n">
+        <v>23.99478557631551</v>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" s="2" t="n">
+        <v>44888.375</v>
+      </c>
+      <c r="B1884" t="n">
+        <v>1585500</v>
+      </c>
+      <c r="C1884" t="n">
+        <v>1644500</v>
+      </c>
+      <c r="D1884" t="n">
+        <v>1575000</v>
+      </c>
+      <c r="E1884" t="n">
+        <v>1639000</v>
+      </c>
+      <c r="F1884" t="n">
+        <v>49509.39394667</v>
+      </c>
+      <c r="G1884" t="n">
+        <v>79953156319.35641</v>
+      </c>
+      <c r="H1884" t="n">
+        <v>34750</v>
+      </c>
+      <c r="I1884" t="n">
+        <v>1623750</v>
+      </c>
+      <c r="J1884" t="n">
+        <v>1.009391839876828</v>
+      </c>
+      <c r="K1884" t="n">
+        <v>26.09781336872228</v>
+      </c>
+      <c r="L1884" t="n">
+        <v>23.28095677264427</v>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" s="2" t="n">
+        <v>44889.375</v>
+      </c>
+      <c r="B1885" t="n">
+        <v>1639500</v>
+      </c>
+      <c r="C1885" t="n">
+        <v>1673500</v>
+      </c>
+      <c r="D1885" t="n">
+        <v>1625500</v>
+      </c>
+      <c r="E1885" t="n">
+        <v>1648000</v>
+      </c>
+      <c r="F1885" t="n">
+        <v>40350.7194246</v>
+      </c>
+      <c r="G1885" t="n">
+        <v>66491136682.28195</v>
+      </c>
+      <c r="H1885" t="n">
+        <v>24000</v>
+      </c>
+      <c r="I1885" t="n">
+        <v>1674250</v>
+      </c>
+      <c r="J1885" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1885" t="n">
+        <v>26.09781336872228</v>
+      </c>
+      <c r="L1885" t="n">
+        <v>23.28095677264427</v>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" s="2" t="n">
+        <v>44890.375</v>
+      </c>
+      <c r="B1886" t="n">
+        <v>1647500</v>
+      </c>
+      <c r="C1886" t="n">
+        <v>1651500</v>
+      </c>
+      <c r="D1886" t="n">
+        <v>1602000</v>
+      </c>
+      <c r="E1886" t="n">
+        <v>1645000</v>
+      </c>
+      <c r="F1886" t="n">
+        <v>27212.06336001</v>
+      </c>
+      <c r="G1886" t="n">
+        <v>44321847536.07245</v>
+      </c>
+      <c r="H1886" t="n">
+        <v>24750</v>
+      </c>
+      <c r="I1886" t="n">
+        <v>1671500</v>
+      </c>
+      <c r="J1886" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1886" t="n">
+        <v>26.09781336872228</v>
+      </c>
+      <c r="L1886" t="n">
+        <v>23.28095677264427</v>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" s="2" t="n">
+        <v>44891.375</v>
+      </c>
+      <c r="B1887" t="n">
+        <v>1645000</v>
+      </c>
+      <c r="C1887" t="n">
+        <v>1689500</v>
+      </c>
+      <c r="D1887" t="n">
+        <v>1643500</v>
+      </c>
+      <c r="E1887" t="n">
+        <v>1659000</v>
+      </c>
+      <c r="F1887" t="n">
+        <v>23198.99568381</v>
+      </c>
+      <c r="G1887" t="n">
+        <v>38710686522.29617</v>
+      </c>
+      <c r="H1887" t="n">
+        <v>23000</v>
+      </c>
+      <c r="I1887" t="n">
+        <v>1669750</v>
+      </c>
+      <c r="J1887" t="n">
+        <v>0.9935619104656386</v>
+      </c>
+      <c r="K1887" t="n">
+        <v>25.92979330960339</v>
+      </c>
+      <c r="L1887" t="n">
+        <v>23.77488084193253</v>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" s="2" t="n">
+        <v>44892.375</v>
+      </c>
+      <c r="B1888" t="n">
+        <v>1659000</v>
+      </c>
+      <c r="C1888" t="n">
+        <v>1678500</v>
+      </c>
+      <c r="D1888" t="n">
+        <v>1641000</v>
+      </c>
+      <c r="E1888" t="n">
+        <v>1648000</v>
+      </c>
+      <c r="F1888" t="n">
+        <v>15501.31519788</v>
+      </c>
+      <c r="G1888" t="n">
+        <v>25819490964.31697</v>
+      </c>
+      <c r="H1888" t="n">
+        <v>18750</v>
+      </c>
+      <c r="I1888" t="n">
+        <v>1682000</v>
+      </c>
+      <c r="J1888" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1888" t="n">
+        <v>25.92979330960339</v>
+      </c>
+      <c r="L1888" t="n">
+        <v>23.77488084193253</v>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" s="2" t="n">
+        <v>44893.375</v>
+      </c>
+      <c r="B1889" t="n">
+        <v>1645500</v>
+      </c>
+      <c r="C1889" t="n">
+        <v>1651000</v>
+      </c>
+      <c r="D1889" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="E1889" t="n">
+        <v>1609000</v>
+      </c>
+      <c r="F1889" t="n">
+        <v>28742.94119608</v>
+      </c>
+      <c r="G1889" t="n">
+        <v>46536773961.65374</v>
+      </c>
+      <c r="H1889" t="n">
+        <v>25500</v>
+      </c>
+      <c r="I1889" t="n">
+        <v>1664250</v>
+      </c>
+      <c r="J1889" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1889" t="n">
+        <v>25.92979330960339</v>
+      </c>
+      <c r="L1889" t="n">
+        <v>23.77488084193253</v>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" s="2" t="n">
+        <v>44894.375</v>
+      </c>
+      <c r="B1890" t="n">
+        <v>1609500</v>
+      </c>
+      <c r="C1890" t="n">
+        <v>1672000</v>
+      </c>
+      <c r="D1890" t="n">
+        <v>1595000</v>
+      </c>
+      <c r="E1890" t="n">
+        <v>1657000</v>
+      </c>
+      <c r="F1890" t="n">
+        <v>33161.62513414</v>
+      </c>
+      <c r="G1890" t="n">
+        <v>54527166386.91002</v>
+      </c>
+      <c r="H1890" t="n">
+        <v>38500</v>
+      </c>
+      <c r="I1890" t="n">
+        <v>1635000</v>
+      </c>
+      <c r="J1890" t="n">
+        <v>1.013455657492355</v>
+      </c>
+      <c r="K1890" t="n">
+        <v>26.27869572722497</v>
+      </c>
+      <c r="L1890" t="n">
+        <v>22.74922174622764</v>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" s="2" t="n">
+        <v>44895.375</v>
+      </c>
+      <c r="B1891" t="n">
+        <v>1657000</v>
+      </c>
+      <c r="C1891" t="n">
+        <v>1766500</v>
+      </c>
+      <c r="D1891" t="n">
+        <v>1655000</v>
+      </c>
+      <c r="E1891" t="n">
+        <v>1752500</v>
+      </c>
+      <c r="F1891" t="n">
+        <v>50982.60763895</v>
+      </c>
+      <c r="G1891" t="n">
+        <v>87964238429.10722</v>
+      </c>
+      <c r="H1891" t="n">
+        <v>55750</v>
+      </c>
+      <c r="I1891" t="n">
+        <v>1695500</v>
+      </c>
+      <c r="J1891" t="n">
+        <v>1.03361840165143</v>
+      </c>
+      <c r="K1891" t="n">
+        <v>27.16214347505855</v>
+      </c>
+      <c r="L1891" t="n">
+        <v>20.15217405500674</v>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" s="2" t="n">
+        <v>44896.375</v>
+      </c>
+      <c r="B1892" t="n">
+        <v>1752500</v>
+      </c>
+      <c r="C1892" t="n">
+        <v>1754500</v>
+      </c>
+      <c r="D1892" t="n">
+        <v>1710000</v>
+      </c>
+      <c r="E1892" t="n">
+        <v>1729000</v>
+      </c>
+      <c r="F1892" t="n">
+        <v>29415.60567537</v>
+      </c>
+      <c r="G1892" t="n">
+        <v>50990524695.3476</v>
+      </c>
+      <c r="H1892" t="n">
+        <v>22250</v>
+      </c>
+      <c r="I1892" t="n">
+        <v>1808250</v>
+      </c>
+      <c r="J1892" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1892" t="n">
+        <v>27.16214347505855</v>
+      </c>
+      <c r="L1892" t="n">
+        <v>20.15217405500674</v>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" s="2" t="n">
+        <v>44897.375</v>
+      </c>
+      <c r="B1893" t="n">
+        <v>1729000</v>
+      </c>
+      <c r="C1893" t="n">
+        <v>1742500</v>
+      </c>
+      <c r="D1893" t="n">
+        <v>1701000</v>
+      </c>
+      <c r="E1893" t="n">
+        <v>1735500</v>
+      </c>
+      <c r="F1893" t="n">
+        <v>25238.85332789</v>
+      </c>
+      <c r="G1893" t="n">
+        <v>43415970311.50549</v>
+      </c>
+      <c r="H1893" t="n">
+        <v>20750</v>
+      </c>
+      <c r="I1893" t="n">
+        <v>1751250</v>
+      </c>
+      <c r="J1893" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1893" t="n">
+        <v>27.16214347505855</v>
+      </c>
+      <c r="L1893" t="n">
+        <v>20.15217405500674</v>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" s="2" t="n">
+        <v>44898.375</v>
+      </c>
+      <c r="B1894" t="n">
+        <v>1735500</v>
+      </c>
+      <c r="C1894" t="n">
+        <v>1747000</v>
+      </c>
+      <c r="D1894" t="n">
+        <v>1675000</v>
+      </c>
+      <c r="E1894" t="n">
+        <v>1679000</v>
+      </c>
+      <c r="F1894" t="n">
+        <v>18346.12178334</v>
+      </c>
+      <c r="G1894" t="n">
+        <v>31304937757.0601</v>
+      </c>
+      <c r="H1894" t="n">
+        <v>36000</v>
+      </c>
+      <c r="I1894" t="n">
+        <v>1756250</v>
+      </c>
+      <c r="J1894" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1894" t="n">
+        <v>27.16214347505855</v>
+      </c>
+      <c r="L1894" t="n">
+        <v>20.15217405500674</v>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" s="2" t="n">
+        <v>44899.375</v>
+      </c>
+      <c r="B1895" t="n">
+        <v>1679000</v>
+      </c>
+      <c r="C1895" t="n">
+        <v>1722500</v>
+      </c>
+      <c r="D1895" t="n">
+        <v>1677500</v>
+      </c>
+      <c r="E1895" t="n">
+        <v>1713500</v>
+      </c>
+      <c r="F1895" t="n">
+        <v>19206.2947805</v>
+      </c>
+      <c r="G1895" t="n">
+        <v>32586603965.32487</v>
+      </c>
+      <c r="H1895" t="n">
+        <v>22500</v>
+      </c>
+      <c r="I1895" t="n">
+        <v>1715000</v>
+      </c>
+      <c r="J1895" t="n">
+        <v>0.9991253644314869</v>
+      </c>
+      <c r="K1895" t="n">
+        <v>27.1383864982582</v>
+      </c>
+      <c r="L1895" t="n">
+        <v>20.22201180364668</v>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" s="2" t="n">
+        <v>44900.375</v>
+      </c>
+      <c r="B1896" t="n">
+        <v>1712500</v>
+      </c>
+      <c r="C1896" t="n">
+        <v>1736000</v>
+      </c>
+      <c r="D1896" t="n">
+        <v>1678000</v>
+      </c>
+      <c r="E1896" t="n">
+        <v>1688000</v>
+      </c>
+      <c r="F1896" t="n">
+        <v>27626.89059598</v>
+      </c>
+      <c r="G1896" t="n">
+        <v>47360280335.58779</v>
+      </c>
+      <c r="H1896" t="n">
+        <v>29000</v>
+      </c>
+      <c r="I1896" t="n">
+        <v>1735000</v>
+      </c>
+      <c r="J1896" t="n">
+        <v>0.9729106628242075</v>
+      </c>
+      <c r="K1896" t="n">
+        <v>26.40322559599991</v>
+      </c>
+      <c r="L1896" t="n">
+        <v>22.38314462510409</v>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" s="2" t="n">
+        <v>44901.375</v>
+      </c>
+      <c r="B1897" t="n">
+        <v>1688000</v>
+      </c>
+      <c r="C1897" t="n">
+        <v>1702500</v>
+      </c>
+      <c r="D1897" t="n">
+        <v>1668500</v>
+      </c>
+      <c r="E1897" t="n">
+        <v>1699000</v>
+      </c>
+      <c r="F1897" t="n">
+        <v>18723.2152135</v>
+      </c>
+      <c r="G1897" t="n">
+        <v>31593946211.3745</v>
+      </c>
+      <c r="H1897" t="n">
+        <v>17000</v>
+      </c>
+      <c r="I1897" t="n">
+        <v>1717000</v>
+      </c>
+      <c r="J1897" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1897" t="n">
+        <v>26.40322559599991</v>
+      </c>
+      <c r="L1897" t="n">
+        <v>22.38314462510409</v>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" s="2" t="n">
+        <v>44902.375</v>
+      </c>
+      <c r="B1898" t="n">
+        <v>1699000</v>
+      </c>
+      <c r="C1898" t="n">
+        <v>1706000</v>
+      </c>
+      <c r="D1898" t="n">
+        <v>1634500</v>
+      </c>
+      <c r="E1898" t="n">
+        <v>1651000</v>
+      </c>
+      <c r="F1898" t="n">
+        <v>26828.18280443</v>
+      </c>
+      <c r="G1898" t="n">
+        <v>44482878652.72713</v>
+      </c>
+      <c r="H1898" t="n">
+        <v>35750</v>
+      </c>
+      <c r="I1898" t="n">
+        <v>1716000</v>
+      </c>
+      <c r="J1898" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1898" t="n">
+        <v>26.40322559599991</v>
+      </c>
+      <c r="L1898" t="n">
+        <v>22.38314462510409</v>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" s="2" t="n">
+        <v>44903.375</v>
+      </c>
+      <c r="B1899" t="n">
+        <v>1651000</v>
+      </c>
+      <c r="C1899" t="n">
+        <v>1720000</v>
+      </c>
+      <c r="D1899" t="n">
+        <v>1640000</v>
+      </c>
+      <c r="E1899" t="n">
+        <v>1703500</v>
+      </c>
+      <c r="F1899" t="n">
+        <v>23448.70305849</v>
+      </c>
+      <c r="G1899" t="n">
+        <v>39232909463.18479</v>
+      </c>
+      <c r="H1899" t="n">
+        <v>40000</v>
+      </c>
+      <c r="I1899" t="n">
+        <v>1686750</v>
+      </c>
+      <c r="J1899" t="n">
+        <v>1.009930339410108</v>
+      </c>
+      <c r="K1899" t="n">
+        <v>26.66541858768985</v>
+      </c>
+      <c r="L1899" t="n">
+        <v>21.6123829072861</v>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" s="2" t="n">
+        <v>44904.375</v>
+      </c>
+      <c r="B1900" t="n">
+        <v>1703500</v>
+      </c>
+      <c r="C1900" t="n">
+        <v>1722500</v>
+      </c>
+      <c r="D1900" t="n">
+        <v>1680000</v>
+      </c>
+      <c r="E1900" t="n">
+        <v>1685000</v>
+      </c>
+      <c r="F1900" t="n">
+        <v>23495.11937177</v>
+      </c>
+      <c r="G1900" t="n">
+        <v>39931357248.88188</v>
+      </c>
+      <c r="H1900" t="n">
+        <v>21250</v>
+      </c>
+      <c r="I1900" t="n">
+        <v>1743500</v>
+      </c>
+      <c r="J1900" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1900" t="n">
+        <v>26.66541858768985</v>
+      </c>
+      <c r="L1900" t="n">
+        <v>21.6123829072861</v>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" s="2" t="n">
+        <v>44905.375</v>
+      </c>
+      <c r="B1901" t="n">
+        <v>1685000</v>
+      </c>
+      <c r="C1901" t="n">
+        <v>1707500</v>
+      </c>
+      <c r="D1901" t="n">
+        <v>1681500</v>
+      </c>
+      <c r="E1901" t="n">
+        <v>1687500</v>
+      </c>
+      <c r="F1901" t="n">
+        <v>12815.65008258</v>
+      </c>
+      <c r="G1901" t="n">
+        <v>21653241308.79677</v>
+      </c>
+      <c r="H1901" t="n">
+        <v>13000</v>
+      </c>
+      <c r="I1901" t="n">
+        <v>1706250</v>
+      </c>
+      <c r="J1901" t="n">
+        <v>0.9890109890109891</v>
+      </c>
+      <c r="K1901" t="n">
+        <v>26.37239200980315</v>
+      </c>
+      <c r="L1901" t="n">
+        <v>22.47378529292031</v>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" s="2" t="n">
+        <v>44906.375</v>
+      </c>
+      <c r="B1902" t="n">
+        <v>1687500</v>
+      </c>
+      <c r="C1902" t="n">
+        <v>1704000</v>
+      </c>
+      <c r="D1902" t="n">
+        <v>1675500</v>
+      </c>
+      <c r="E1902" t="n">
+        <v>1683500</v>
+      </c>
+      <c r="F1902" t="n">
+        <v>9875.75455867</v>
+      </c>
+      <c r="G1902" t="n">
+        <v>16696965742.82948</v>
+      </c>
+      <c r="H1902" t="n">
+        <v>14250</v>
+      </c>
+      <c r="I1902" t="n">
+        <v>1700500</v>
+      </c>
+      <c r="J1902" t="n">
+        <v>0.990002940311673</v>
+      </c>
+      <c r="K1902" t="n">
+        <v>26.10874563275719</v>
+      </c>
+      <c r="L1902" t="n">
+        <v>23.24881948875703</v>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" s="2" t="n">
+        <v>44907.375</v>
+      </c>
+      <c r="B1903" t="n">
+        <v>1682000</v>
+      </c>
+      <c r="C1903" t="n">
+        <v>1696500</v>
+      </c>
+      <c r="D1903" t="n">
+        <v>1652500</v>
+      </c>
+      <c r="E1903" t="n">
+        <v>1694500</v>
+      </c>
+      <c r="F1903" t="n">
+        <v>20297.26232075</v>
+      </c>
+      <c r="G1903" t="n">
+        <v>33864499981.31113</v>
+      </c>
+      <c r="H1903" t="n">
+        <v>22000</v>
+      </c>
+      <c r="I1903" t="n">
+        <v>1696250</v>
+      </c>
+      <c r="J1903" t="n">
+        <v>0.9989683124539426</v>
+      </c>
+      <c r="K1903" t="n">
+        <v>26.08180956504469</v>
+      </c>
+      <c r="L1903" t="n">
+        <v>23.32800272583569</v>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" s="2" t="n">
+        <v>44908.375</v>
+      </c>
+      <c r="B1904" t="n">
+        <v>1693000</v>
+      </c>
+      <c r="C1904" t="n">
+        <v>1762500</v>
+      </c>
+      <c r="D1904" t="n">
+        <v>1658000</v>
+      </c>
+      <c r="E1904" t="n">
+        <v>1721500</v>
+      </c>
+      <c r="F1904" t="n">
+        <v>57381.66818205</v>
+      </c>
+      <c r="G1904" t="n">
+        <v>98411218714.33356</v>
+      </c>
+      <c r="H1904" t="n">
+        <v>52250</v>
+      </c>
+      <c r="I1904" t="n">
+        <v>1715000</v>
+      </c>
+      <c r="J1904" t="n">
+        <v>1.003790087463557</v>
+      </c>
+      <c r="K1904" t="n">
+        <v>26.18066190450404</v>
+      </c>
+      <c r="L1904" t="n">
+        <v>23.03740915016102</v>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" s="2" t="n">
+        <v>44909.375</v>
+      </c>
+      <c r="B1905" t="n">
+        <v>1721500</v>
+      </c>
+      <c r="C1905" t="n">
+        <v>1761000</v>
+      </c>
+      <c r="D1905" t="n">
+        <v>1706500</v>
+      </c>
+      <c r="E1905" t="n">
+        <v>1707500</v>
+      </c>
+      <c r="F1905" t="n">
+        <v>32061.15570552</v>
+      </c>
+      <c r="G1905" t="n">
+        <v>55504527146.04187</v>
+      </c>
+      <c r="H1905" t="n">
+        <v>27250</v>
+      </c>
+      <c r="I1905" t="n">
+        <v>1773750</v>
+      </c>
+      <c r="J1905" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1905" t="n">
+        <v>26.18066190450404</v>
+      </c>
+      <c r="L1905" t="n">
+        <v>23.03740915016102</v>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" s="2" t="n">
+        <v>44910.375</v>
+      </c>
+      <c r="B1906" t="n">
+        <v>1708000</v>
+      </c>
+      <c r="C1906" t="n">
+        <v>1717000</v>
+      </c>
+      <c r="D1906" t="n">
+        <v>1666500</v>
+      </c>
+      <c r="E1906" t="n">
+        <v>1674000</v>
+      </c>
+      <c r="F1906" t="n">
+        <v>26876.15691993</v>
+      </c>
+      <c r="G1906" t="n">
+        <v>45363986179.79208</v>
+      </c>
+      <c r="H1906" t="n">
+        <v>25250</v>
+      </c>
+      <c r="I1906" t="n">
+        <v>1735250</v>
+      </c>
+      <c r="J1906" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1906" t="n">
+        <v>26.18066190450404</v>
+      </c>
+      <c r="L1906" t="n">
+        <v>23.03740915016102</v>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" s="2" t="n">
+        <v>44911.375</v>
+      </c>
+      <c r="B1907" t="n">
+        <v>1674000</v>
+      </c>
+      <c r="C1907" t="n">
+        <v>1682500</v>
+      </c>
+      <c r="D1907" t="n">
+        <v>1547500</v>
+      </c>
+      <c r="E1907" t="n">
+        <v>1563500</v>
+      </c>
+      <c r="F1907" t="n">
+        <v>57734.68015563</v>
+      </c>
+      <c r="G1907" t="n">
+        <v>92914823876.8965</v>
+      </c>
+      <c r="H1907" t="n">
+        <v>67500</v>
+      </c>
+      <c r="I1907" t="n">
+        <v>1699250</v>
+      </c>
+      <c r="J1907" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1907" t="n">
+        <v>26.18066190450404</v>
+      </c>
+      <c r="L1907" t="n">
+        <v>23.03740915016102</v>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" s="2" t="n">
+        <v>44912.375</v>
+      </c>
+      <c r="B1908" t="n">
+        <v>1563000</v>
+      </c>
+      <c r="C1908" t="n">
+        <v>1575500</v>
+      </c>
+      <c r="D1908" t="n">
+        <v>1538500</v>
+      </c>
+      <c r="E1908" t="n">
+        <v>1575000</v>
+      </c>
+      <c r="F1908" t="n">
+        <v>26096.69784848</v>
+      </c>
+      <c r="G1908" t="n">
+        <v>40717283078.90595</v>
+      </c>
+      <c r="H1908" t="n">
+        <v>18500</v>
+      </c>
+      <c r="I1908" t="n">
+        <v>1630500</v>
+      </c>
+      <c r="J1908" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1908" t="n">
+        <v>26.18066190450404</v>
+      </c>
+      <c r="L1908" t="n">
+        <v>23.03740915016102</v>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" s="2" t="n">
+        <v>44913.375</v>
+      </c>
+      <c r="B1909" t="n">
+        <v>1574500</v>
+      </c>
+      <c r="C1909" t="n">
+        <v>1584000</v>
+      </c>
+      <c r="D1909" t="n">
+        <v>1557500</v>
+      </c>
+      <c r="E1909" t="n">
+        <v>1571000</v>
+      </c>
+      <c r="F1909" t="n">
+        <v>13864.55169752</v>
+      </c>
+      <c r="G1909" t="n">
+        <v>21776846699.55664</v>
+      </c>
+      <c r="H1909" t="n">
+        <v>13250</v>
+      </c>
+      <c r="I1909" t="n">
+        <v>1593000</v>
+      </c>
+      <c r="J1909" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1909" t="n">
+        <v>26.18066190450404</v>
+      </c>
+      <c r="L1909" t="n">
+        <v>23.03740915016102</v>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" s="2" t="n">
+        <v>44914.375</v>
+      </c>
+      <c r="B1910" t="n">
+        <v>1570500</v>
+      </c>
+      <c r="C1910" t="n">
+        <v>1580000</v>
+      </c>
+      <c r="D1910" t="n">
+        <v>1518500</v>
+      </c>
+      <c r="E1910" t="n">
+        <v>1537000</v>
+      </c>
+      <c r="F1910" t="n">
+        <v>22686.95713957</v>
+      </c>
+      <c r="G1910" t="n">
+        <v>35230705692.01427</v>
+      </c>
+      <c r="H1910" t="n">
+        <v>30750</v>
+      </c>
+      <c r="I1910" t="n">
+        <v>1583750</v>
+      </c>
+      <c r="J1910" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1910" t="n">
+        <v>26.18066190450404</v>
+      </c>
+      <c r="L1910" t="n">
+        <v>23.03740915016102</v>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" s="2" t="n">
+        <v>44915.375</v>
+      </c>
+      <c r="B1911" t="n">
+        <v>1537000</v>
+      </c>
+      <c r="C1911" t="n">
+        <v>1603000</v>
+      </c>
+      <c r="D1911" t="n">
+        <v>1531500</v>
+      </c>
+      <c r="E1911" t="n">
+        <v>1586000</v>
+      </c>
+      <c r="F1911" t="n">
+        <v>38125.49864738</v>
+      </c>
+      <c r="G1911" t="n">
+        <v>60138691783.90965</v>
+      </c>
+      <c r="H1911" t="n">
+        <v>35750</v>
+      </c>
+      <c r="I1911" t="n">
+        <v>1567750</v>
+      </c>
+      <c r="J1911" t="n">
+        <v>1.011640886620954</v>
+      </c>
+      <c r="K1911" t="n">
+        <v>26.48542802139589</v>
+      </c>
+      <c r="L1911" t="n">
+        <v>22.1414963560232</v>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" s="2" t="n">
+        <v>44916.375</v>
+      </c>
+      <c r="B1912" t="n">
+        <v>1584000</v>
+      </c>
+      <c r="C1912" t="n">
+        <v>1595000</v>
+      </c>
+      <c r="D1912" t="n">
+        <v>1569500</v>
+      </c>
+      <c r="E1912" t="n">
+        <v>1582500</v>
+      </c>
+      <c r="F1912" t="n">
+        <v>21225.55903531</v>
+      </c>
+      <c r="G1912" t="n">
+        <v>33582972431.15557</v>
+      </c>
+      <c r="H1912" t="n">
+        <v>12750</v>
+      </c>
+      <c r="I1912" t="n">
+        <v>1619750</v>
+      </c>
+      <c r="J1912" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1912" t="n">
+        <v>26.48542802139589</v>
+      </c>
+      <c r="L1912" t="n">
+        <v>22.1414963560232</v>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" s="2" t="n">
+        <v>44917.375</v>
+      </c>
+      <c r="B1913" t="n">
+        <v>1582500</v>
+      </c>
+      <c r="C1913" t="n">
+        <v>1609000</v>
+      </c>
+      <c r="D1913" t="n">
+        <v>1546500</v>
+      </c>
+      <c r="E1913" t="n">
+        <v>1583000</v>
+      </c>
+      <c r="F1913" t="n">
+        <v>24386.49342984</v>
+      </c>
+      <c r="G1913" t="n">
+        <v>38381172425.41427</v>
+      </c>
+      <c r="H1913" t="n">
+        <v>31250</v>
+      </c>
+      <c r="I1913" t="n">
+        <v>1595250</v>
+      </c>
+      <c r="J1913" t="n">
+        <v>0.9923209528287102</v>
+      </c>
+      <c r="K1913" t="n">
+        <v>26.2820451702678</v>
+      </c>
+      <c r="L1913" t="n">
+        <v>22.73937547819133</v>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" s="2" t="n">
+        <v>44918.375</v>
+      </c>
+      <c r="B1914" t="n">
+        <v>1583000</v>
+      </c>
+      <c r="C1914" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="D1914" t="n">
+        <v>1575500</v>
+      </c>
+      <c r="E1914" t="n">
+        <v>1588500</v>
+      </c>
+      <c r="F1914" t="n">
+        <v>19943.34580122</v>
+      </c>
+      <c r="G1914" t="n">
+        <v>31651223187.67197</v>
+      </c>
+      <c r="H1914" t="n">
+        <v>12250</v>
+      </c>
+      <c r="I1914" t="n">
+        <v>1614250</v>
+      </c>
+      <c r="J1914" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1914" t="n">
+        <v>26.2820451702678</v>
+      </c>
+      <c r="L1914" t="n">
+        <v>22.73937547819133</v>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" s="2" t="n">
+        <v>44919.375</v>
+      </c>
+      <c r="B1915" t="n">
+        <v>1588500</v>
+      </c>
+      <c r="C1915" t="n">
+        <v>1599000</v>
+      </c>
+      <c r="D1915" t="n">
+        <v>1584000</v>
+      </c>
+      <c r="E1915" t="n">
+        <v>1590500</v>
+      </c>
+      <c r="F1915" t="n">
+        <v>7103.47327831</v>
+      </c>
+      <c r="G1915" t="n">
+        <v>11289507513.29591</v>
+      </c>
+      <c r="H1915" t="n">
+        <v>7500</v>
+      </c>
+      <c r="I1915" t="n">
+        <v>1600750</v>
+      </c>
+      <c r="J1915" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1915" t="n">
+        <v>26.2820451702678</v>
+      </c>
+      <c r="L1915" t="n">
+        <v>22.73937547819133</v>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" s="2" t="n">
+        <v>44920.375</v>
+      </c>
+      <c r="B1916" t="n">
+        <v>1590500</v>
+      </c>
+      <c r="C1916" t="n">
+        <v>1596500</v>
+      </c>
+      <c r="D1916" t="n">
+        <v>1560000</v>
+      </c>
+      <c r="E1916" t="n">
+        <v>1580500</v>
+      </c>
+      <c r="F1916" t="n">
+        <v>11979.05613206</v>
+      </c>
+      <c r="G1916" t="n">
+        <v>18931265993.08577</v>
+      </c>
+      <c r="H1916" t="n">
+        <v>18250</v>
+      </c>
+      <c r="I1916" t="n">
+        <v>1598000</v>
+      </c>
+      <c r="J1916" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1916" t="n">
+        <v>26.2820451702678</v>
+      </c>
+      <c r="L1916" t="n">
+        <v>22.73937547819133</v>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" s="2" t="n">
+        <v>44921.375</v>
+      </c>
+      <c r="B1917" t="n">
+        <v>1580500</v>
+      </c>
+      <c r="C1917" t="n">
+        <v>1582500</v>
+      </c>
+      <c r="D1917" t="n">
+        <v>1557500</v>
+      </c>
+      <c r="E1917" t="n">
+        <v>1573500</v>
+      </c>
+      <c r="F1917" t="n">
+        <v>13217.72941708</v>
+      </c>
+      <c r="G1917" t="n">
+        <v>20738435318.74541</v>
+      </c>
+      <c r="H1917" t="n">
+        <v>12500</v>
+      </c>
+      <c r="I1917" t="n">
+        <v>1598750</v>
+      </c>
+      <c r="J1917" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1917" t="n">
+        <v>26.2820451702678</v>
+      </c>
+      <c r="L1917" t="n">
+        <v>22.73937547819133</v>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" s="2" t="n">
+        <v>44922.375</v>
+      </c>
+      <c r="B1918" t="n">
+        <v>1573000</v>
+      </c>
+      <c r="C1918" t="n">
+        <v>1580000</v>
+      </c>
+      <c r="D1918" t="n">
+        <v>1538500</v>
+      </c>
+      <c r="E1918" t="n">
+        <v>1547000</v>
+      </c>
+      <c r="F1918" t="n">
+        <v>14958.7106907</v>
+      </c>
+      <c r="G1918" t="n">
+        <v>23299058701.56404</v>
+      </c>
+      <c r="H1918" t="n">
+        <v>20750</v>
+      </c>
+      <c r="I1918" t="n">
+        <v>1585500</v>
+      </c>
+      <c r="J1918" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1918" t="n">
+        <v>26.2820451702678</v>
+      </c>
+      <c r="L1918" t="n">
+        <v>22.73937547819133</v>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" s="2" t="n">
+        <v>44923.375</v>
+      </c>
+      <c r="B1919" t="n">
+        <v>1547000</v>
+      </c>
+      <c r="C1919" t="n">
+        <v>1549500</v>
+      </c>
+      <c r="D1919" t="n">
+        <v>1506000</v>
+      </c>
+      <c r="E1919" t="n">
+        <v>1514500</v>
+      </c>
+      <c r="F1919" t="n">
+        <v>30225.1559503</v>
+      </c>
+      <c r="G1919" t="n">
+        <v>45949324902.70016</v>
+      </c>
+      <c r="H1919" t="n">
+        <v>21750</v>
+      </c>
+      <c r="I1919" t="n">
+        <v>1567750</v>
+      </c>
+      <c r="J1919" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1919" t="n">
+        <v>26.2820451702678</v>
+      </c>
+      <c r="L1919" t="n">
+        <v>22.73937547819133</v>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" s="2" t="n">
+        <v>44924.375</v>
+      </c>
+      <c r="B1920" t="n">
+        <v>1514500</v>
+      </c>
+      <c r="C1920" t="n">
+        <v>1541000</v>
+      </c>
+      <c r="D1920" t="n">
+        <v>1503000</v>
+      </c>
+      <c r="E1920" t="n">
+        <v>1531500</v>
+      </c>
+      <c r="F1920" t="n">
+        <v>20298.10904091</v>
+      </c>
+      <c r="G1920" t="n">
+        <v>30885537085.86752</v>
+      </c>
+      <c r="H1920" t="n">
+        <v>19000</v>
+      </c>
+      <c r="I1920" t="n">
+        <v>1536250</v>
+      </c>
+      <c r="J1920" t="n">
+        <v>0.9969080553295362</v>
+      </c>
+      <c r="K1920" t="n">
+        <v>26.2007825407747</v>
+      </c>
+      <c r="L1920" t="n">
+        <v>22.97826105441824</v>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" s="2" t="n">
+        <v>44925.375</v>
+      </c>
+      <c r="B1921" t="n">
+        <v>1530000</v>
+      </c>
+      <c r="C1921" t="n">
+        <v>1532000</v>
+      </c>
+      <c r="D1921" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="E1921" t="n">
+        <v>1524000</v>
+      </c>
+      <c r="F1921" t="n">
+        <v>19483.61525262</v>
+      </c>
+      <c r="G1921" t="n">
+        <v>29471077893.66816</v>
+      </c>
+      <c r="H1921" t="n">
+        <v>16000</v>
+      </c>
+      <c r="I1921" t="n">
+        <v>1549000</v>
+      </c>
+      <c r="J1921" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1921" t="n">
+        <v>26.2007825407747</v>
+      </c>
+      <c r="L1921" t="n">
+        <v>22.97826105441824</v>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" s="2" t="n">
+        <v>44926.375</v>
+      </c>
+      <c r="B1922" t="n">
+        <v>1524000</v>
+      </c>
+      <c r="C1922" t="n">
+        <v>1537000</v>
+      </c>
+      <c r="D1922" t="n">
+        <v>1514000</v>
+      </c>
+      <c r="E1922" t="n">
+        <v>1525000</v>
+      </c>
+      <c r="F1922" t="n">
+        <v>10909.81178105</v>
+      </c>
+      <c r="G1922" t="n">
+        <v>16629168260.79408</v>
+      </c>
+      <c r="H1922" t="n">
+        <v>11500</v>
+      </c>
+      <c r="I1922" t="n">
+        <v>1540000</v>
+      </c>
+      <c r="J1922" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1922" t="n">
+        <v>26.2007825407747</v>
+      </c>
+      <c r="L1922" t="n">
+        <v>22.97826105441824</v>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" s="2" t="n">
+        <v>44927.375</v>
+      </c>
+      <c r="B1923" t="n">
+        <v>1524000</v>
+      </c>
+      <c r="C1923" t="n">
+        <v>1535500</v>
+      </c>
+      <c r="D1923" t="n">
+        <v>1519000</v>
+      </c>
+      <c r="E1923" t="n">
+        <v>1528000</v>
+      </c>
+      <c r="F1923" t="n">
+        <v>6939.24978598</v>
+      </c>
+      <c r="G1923" t="n">
+        <v>10585761629.68307</v>
+      </c>
+      <c r="H1923" t="n">
+        <v>8250</v>
+      </c>
+      <c r="I1923" t="n">
+        <v>1535500</v>
+      </c>
+      <c r="J1923" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1923" t="n">
+        <v>26.2007825407747</v>
+      </c>
+      <c r="L1923" t="n">
+        <v>22.97826105441824</v>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" s="2" t="n">
+        <v>44928.375</v>
+      </c>
+      <c r="B1924" t="n">
+        <v>1526500</v>
+      </c>
+      <c r="C1924" t="n">
+        <v>1559500</v>
+      </c>
+      <c r="D1924" t="n">
+        <v>1517500</v>
+      </c>
+      <c r="E1924" t="n">
+        <v>1543500</v>
+      </c>
+      <c r="F1924" t="n">
+        <v>15985.15740468</v>
+      </c>
+      <c r="G1924" t="n">
+        <v>24645927521.10881</v>
+      </c>
+      <c r="H1924" t="n">
+        <v>21000</v>
+      </c>
+      <c r="I1924" t="n">
+        <v>1534750</v>
+      </c>
+      <c r="J1924" t="n">
+        <v>1.005701254275941</v>
+      </c>
+      <c r="K1924" t="n">
+        <v>26.35015986426828</v>
+      </c>
+      <c r="L1924" t="n">
+        <v>22.53914053591436</v>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" s="2" t="n">
+        <v>44929.375</v>
+      </c>
+      <c r="B1925" t="n">
+        <v>1542500</v>
+      </c>
+      <c r="C1925" t="n">
+        <v>1561000</v>
+      </c>
+      <c r="D1925" t="n">
+        <v>1541500</v>
+      </c>
+      <c r="E1925" t="n">
+        <v>1554500</v>
+      </c>
+      <c r="F1925" t="n">
+        <v>13129.52565995</v>
+      </c>
+      <c r="G1925" t="n">
+        <v>20386043318.34359</v>
+      </c>
+      <c r="H1925" t="n">
+        <v>9750</v>
+      </c>
+      <c r="I1925" t="n">
+        <v>1563500</v>
+      </c>
+      <c r="J1925" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1925" t="n">
+        <v>26.35015986426828</v>
+      </c>
+      <c r="L1925" t="n">
+        <v>22.53914053591436</v>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" s="2" t="n">
+        <v>44930.375</v>
+      </c>
+      <c r="B1926" t="n">
+        <v>1554500</v>
+      </c>
+      <c r="C1926" t="n">
+        <v>1622500</v>
+      </c>
+      <c r="D1926" t="n">
+        <v>1553500</v>
+      </c>
+      <c r="E1926" t="n">
+        <v>1610000</v>
+      </c>
+      <c r="F1926" t="n">
+        <v>24454.26040321</v>
+      </c>
+      <c r="G1926" t="n">
+        <v>39024414057.45501</v>
+      </c>
+      <c r="H1926" t="n">
+        <v>34500</v>
+      </c>
+      <c r="I1926" t="n">
+        <v>1564250</v>
+      </c>
+      <c r="J1926" t="n">
+        <v>1.029247243087742</v>
+      </c>
+      <c r="K1926" t="n">
+        <v>27.12082939521939</v>
+      </c>
+      <c r="L1926" t="n">
+        <v>20.27362394938284</v>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" s="2" t="n">
+        <v>44931.375</v>
+      </c>
+      <c r="B1927" t="n">
+        <v>1610000</v>
+      </c>
+      <c r="C1927" t="n">
+        <v>1614000</v>
+      </c>
+      <c r="D1927" t="n">
+        <v>1589000</v>
+      </c>
+      <c r="E1927" t="n">
+        <v>1602500</v>
+      </c>
+      <c r="F1927" t="n">
+        <v>15009.41414501</v>
+      </c>
+      <c r="G1927" t="n">
+        <v>24035390201.5543</v>
+      </c>
+      <c r="H1927" t="n">
+        <v>12500</v>
+      </c>
+      <c r="I1927" t="n">
+        <v>1644500</v>
+      </c>
+      <c r="J1927" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1927" t="n">
+        <v>27.12082939521939</v>
+      </c>
+      <c r="L1927" t="n">
+        <v>20.27362394938284</v>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" s="2" t="n">
+        <v>44932.375</v>
+      </c>
+      <c r="B1928" t="n">
+        <v>1602500</v>
+      </c>
+      <c r="C1928" t="n">
+        <v>1619500</v>
+      </c>
+      <c r="D1928" t="n">
+        <v>1575500</v>
+      </c>
+      <c r="E1928" t="n">
+        <v>1610000</v>
+      </c>
+      <c r="F1928" t="n">
+        <v>17944.20535514</v>
+      </c>
+      <c r="G1928" t="n">
+        <v>28642782290.45908</v>
+      </c>
+      <c r="H1928" t="n">
+        <v>22000</v>
+      </c>
+      <c r="I1928" t="n">
+        <v>1615000</v>
+      </c>
+      <c r="J1928" t="n">
+        <v>0.9969040247678018</v>
+      </c>
+      <c r="K1928" t="n">
+        <v>27.03686397913512</v>
+      </c>
+      <c r="L1928" t="n">
+        <v>20.52045483498847</v>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" s="2" t="n">
+        <v>44933.375</v>
+      </c>
+      <c r="B1929" t="n">
+        <v>1609500</v>
+      </c>
+      <c r="C1929" t="n">
+        <v>1615500</v>
+      </c>
+      <c r="D1929" t="n">
+        <v>1603500</v>
+      </c>
+      <c r="E1929" t="n">
+        <v>1609000</v>
+      </c>
+      <c r="F1929" t="n">
+        <v>8188.42654967</v>
+      </c>
+      <c r="G1929" t="n">
+        <v>13168060165.94142</v>
+      </c>
+      <c r="H1929" t="n">
+        <v>6000</v>
+      </c>
+      <c r="I1929" t="n">
+        <v>1631500</v>
+      </c>
+      <c r="J1929" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1929" t="n">
+        <v>27.03686397913512</v>
+      </c>
+      <c r="L1929" t="n">
+        <v>20.52045483498847</v>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" s="2" t="n">
+        <v>44934.375</v>
+      </c>
+      <c r="B1930" t="n">
+        <v>1608000</v>
+      </c>
+      <c r="C1930" t="n">
+        <v>1639500</v>
+      </c>
+      <c r="D1930" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="E1930" t="n">
+        <v>1634500</v>
+      </c>
+      <c r="F1930" t="n">
+        <v>9740.45544412</v>
+      </c>
+      <c r="G1930" t="n">
+        <v>15716872311.4449</v>
+      </c>
+      <c r="H1930" t="n">
+        <v>19750</v>
+      </c>
+      <c r="I1930" t="n">
+        <v>1614000</v>
+      </c>
+      <c r="J1930" t="n">
+        <v>1.01270136307311</v>
+      </c>
+      <c r="K1930" t="n">
+        <v>27.38026900489241</v>
+      </c>
+      <c r="L1930" t="n">
+        <v>19.51095627496199</v>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" s="2" t="n">
+        <v>44935.375</v>
+      </c>
+      <c r="B1931" t="n">
+        <v>1633500</v>
+      </c>
+      <c r="C1931" t="n">
+        <v>1688000</v>
+      </c>
+      <c r="D1931" t="n">
+        <v>1627000</v>
+      </c>
+      <c r="E1931" t="n">
+        <v>1663500</v>
+      </c>
+      <c r="F1931" t="n">
+        <v>27871.12087451</v>
+      </c>
+      <c r="G1931" t="n">
+        <v>46209558164.13791</v>
+      </c>
+      <c r="H1931" t="n">
+        <v>30500</v>
+      </c>
+      <c r="I1931" t="n">
+        <v>1653250</v>
+      </c>
+      <c r="J1931" t="n">
+        <v>1.006199909269621</v>
+      </c>
+      <c r="K1931" t="n">
+        <v>27.55002418850055</v>
+      </c>
+      <c r="L1931" t="n">
+        <v>19.01193150666824</v>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" s="2" t="n">
+        <v>44936.375</v>
+      </c>
+      <c r="B1932" t="n">
+        <v>1661000</v>
+      </c>
+      <c r="C1932" t="n">
+        <v>1693000</v>
+      </c>
+      <c r="D1932" t="n">
+        <v>1654500</v>
+      </c>
+      <c r="E1932" t="n">
+        <v>1680500</v>
+      </c>
+      <c r="F1932" t="n">
+        <v>19557.02169213</v>
+      </c>
+      <c r="G1932" t="n">
+        <v>32742171387.53268</v>
+      </c>
+      <c r="H1932" t="n">
+        <v>19250</v>
+      </c>
+      <c r="I1932" t="n">
+        <v>1691500</v>
+      </c>
+      <c r="J1932" t="n">
+        <v>0.9934968962459355</v>
+      </c>
+      <c r="K1932" t="n">
+        <v>27.37086352277574</v>
+      </c>
+      <c r="L1932" t="n">
+        <v>19.53860531892166</v>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" s="2" t="n">
+        <v>44937.375</v>
+      </c>
+      <c r="B1933" t="n">
+        <v>1680500</v>
+      </c>
+      <c r="C1933" t="n">
+        <v>1745000</v>
+      </c>
+      <c r="D1933" t="n">
+        <v>1668000</v>
+      </c>
+      <c r="E1933" t="n">
+        <v>1739500</v>
+      </c>
+      <c r="F1933" t="n">
+        <v>20554.06036094</v>
+      </c>
+      <c r="G1933" t="n">
+        <v>34755055938.04014</v>
+      </c>
+      <c r="H1933" t="n">
+        <v>38500</v>
+      </c>
+      <c r="I1933" t="n">
+        <v>1699750</v>
+      </c>
+      <c r="J1933" t="n">
+        <v>1.023385792028239</v>
+      </c>
+      <c r="K1933" t="n">
+        <v>28.0109528447527</v>
+      </c>
+      <c r="L1933" t="n">
+        <v>17.65695187660787</v>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" s="2" t="n">
+        <v>44938.375</v>
+      </c>
+      <c r="B1934" t="n">
+        <v>1738000</v>
+      </c>
+      <c r="C1934" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="D1934" t="n">
+        <v>1718500</v>
+      </c>
+      <c r="E1934" t="n">
+        <v>1770500</v>
+      </c>
+      <c r="F1934" t="n">
+        <v>47485.94533828</v>
+      </c>
+      <c r="G1934" t="n">
+        <v>83479577997.10413</v>
+      </c>
+      <c r="H1934" t="n">
+        <v>40750</v>
+      </c>
+      <c r="I1934" t="n">
+        <v>1776500</v>
+      </c>
+      <c r="J1934" t="n">
+        <v>0.9966225724739657</v>
+      </c>
+      <c r="K1934" t="n">
+        <v>27.91634788158439</v>
+      </c>
+      <c r="L1934" t="n">
+        <v>17.93505955391738</v>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" s="2" t="n">
+        <v>44939.375</v>
+      </c>
+      <c r="B1935" t="n">
+        <v>1770000</v>
+      </c>
+      <c r="C1935" t="n">
+        <v>1824000</v>
+      </c>
+      <c r="D1935" t="n">
+        <v>1753000</v>
+      </c>
+      <c r="E1935" t="n">
+        <v>1807000</v>
+      </c>
+      <c r="F1935" t="n">
+        <v>34629.79180923</v>
+      </c>
+      <c r="G1935" t="n">
+        <v>61663275790.71977</v>
+      </c>
+      <c r="H1935" t="n">
+        <v>35500</v>
+      </c>
+      <c r="I1935" t="n">
+        <v>1810750</v>
+      </c>
+      <c r="J1935" t="n">
+        <v>0.9979290349302775</v>
+      </c>
+      <c r="K1935" t="n">
+        <v>27.8585341002474</v>
+      </c>
+      <c r="L1935" t="n">
+        <v>18.10501317903007</v>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" s="2" t="n">
+        <v>44940.375</v>
+      </c>
+      <c r="B1936" t="n">
+        <v>1807000</v>
+      </c>
+      <c r="C1936" t="n">
+        <v>1947500</v>
+      </c>
+      <c r="D1936" t="n">
+        <v>1803500</v>
+      </c>
+      <c r="E1936" t="n">
+        <v>1912000</v>
+      </c>
+      <c r="F1936" t="n">
+        <v>90423.82535039001</v>
+      </c>
+      <c r="G1936" t="n">
+        <v>171979417403.1146</v>
+      </c>
+      <c r="H1936" t="n">
+        <v>72000</v>
+      </c>
+      <c r="I1936" t="n">
+        <v>1842500</v>
+      </c>
+      <c r="J1936" t="n">
+        <v>1.037720488466757</v>
+      </c>
+      <c r="K1936" t="n">
+        <v>28.90937161447654</v>
+      </c>
+      <c r="L1936" t="n">
+        <v>15.01589427316445</v>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" s="2" t="n">
+        <v>44941.375</v>
+      </c>
+      <c r="B1937" t="n">
+        <v>1912000</v>
+      </c>
+      <c r="C1937" t="n">
+        <v>1936000</v>
+      </c>
+      <c r="D1937" t="n">
+        <v>1876000</v>
+      </c>
+      <c r="E1937" t="n">
+        <v>1921000</v>
+      </c>
+      <c r="F1937" t="n">
+        <v>24401.15547827</v>
+      </c>
+      <c r="G1937" t="n">
+        <v>46390615201.47928</v>
+      </c>
+      <c r="H1937" t="n">
+        <v>30000</v>
+      </c>
+      <c r="I1937" t="n">
+        <v>1984000</v>
+      </c>
+      <c r="J1937" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1937" t="n">
+        <v>28.90937161447654</v>
+      </c>
+      <c r="L1937" t="n">
+        <v>15.01589427316445</v>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" s="2" t="n">
+        <v>44942.375</v>
+      </c>
+      <c r="B1938" t="n">
+        <v>1922000</v>
+      </c>
+      <c r="C1938" t="n">
+        <v>1988000</v>
+      </c>
+      <c r="D1938" t="n">
+        <v>1895000</v>
+      </c>
+      <c r="E1938" t="n">
+        <v>1961000</v>
+      </c>
+      <c r="F1938" t="n">
+        <v>31947.05590299</v>
+      </c>
+      <c r="G1938" t="n">
+        <v>61887378863.84293</v>
+      </c>
+      <c r="H1938" t="n">
+        <v>46500</v>
+      </c>
+      <c r="I1938" t="n">
+        <v>1952000</v>
+      </c>
+      <c r="J1938" t="n">
+        <v>1.004610655737705</v>
+      </c>
+      <c r="K1938" t="n">
+        <v>29.04266277458428</v>
+      </c>
+      <c r="L1938" t="n">
+        <v>14.62406181848128</v>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" s="2" t="n">
+        <v>44943.375</v>
+      </c>
+      <c r="B1939" t="n">
+        <v>1959500</v>
+      </c>
+      <c r="C1939" t="n">
+        <v>1988000</v>
+      </c>
+      <c r="D1939" t="n">
+        <v>1918500</v>
+      </c>
+      <c r="E1939" t="n">
+        <v>1945000</v>
+      </c>
+      <c r="F1939" t="n">
+        <v>25945.82345604</v>
+      </c>
+      <c r="G1939" t="n">
+        <v>50649901177.34425</v>
+      </c>
+      <c r="H1939" t="n">
+        <v>34750</v>
+      </c>
+      <c r="I1939" t="n">
+        <v>2006000</v>
+      </c>
+      <c r="J1939" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1939" t="n">
+        <v>29.04266277458428</v>
+      </c>
+      <c r="L1939" t="n">
+        <v>14.62406181848128</v>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" s="2" t="n">
+        <v>44944.375</v>
+      </c>
+      <c r="B1940" t="n">
+        <v>1945000</v>
+      </c>
+      <c r="C1940" t="n">
+        <v>1995000</v>
+      </c>
+      <c r="D1940" t="n">
+        <v>1875000</v>
+      </c>
+      <c r="E1940" t="n">
+        <v>1881000</v>
+      </c>
+      <c r="F1940" t="n">
+        <v>48284.07794865</v>
+      </c>
+      <c r="G1940" t="n">
+        <v>93722052538.25331</v>
+      </c>
+      <c r="H1940" t="n">
+        <v>60000</v>
+      </c>
+      <c r="I1940" t="n">
+        <v>1979750</v>
+      </c>
+      <c r="J1940" t="n">
+        <v>0.9501199646420002</v>
+      </c>
+      <c r="K1940" t="n">
+        <v>27.59401372849755</v>
+      </c>
+      <c r="L1940" t="n">
+        <v>18.88261663369784</v>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" s="2" t="n">
+        <v>44945.375</v>
+      </c>
+      <c r="B1941" t="n">
+        <v>1880500</v>
+      </c>
+      <c r="C1941" t="n">
+        <v>1943500</v>
+      </c>
+      <c r="D1941" t="n">
+        <v>1876000</v>
+      </c>
+      <c r="E1941" t="n">
+        <v>1931500</v>
+      </c>
+      <c r="F1941" t="n">
+        <v>20150.04124129</v>
+      </c>
+      <c r="G1941" t="n">
+        <v>38411160872.64972</v>
+      </c>
+      <c r="H1941" t="n">
+        <v>33750</v>
+      </c>
+      <c r="I1941" t="n">
+        <v>1940500</v>
+      </c>
+      <c r="J1941" t="n">
+        <v>0.9953620200979129</v>
+      </c>
+      <c r="K1941" t="n">
+        <v>27.46603324740686</v>
+      </c>
+      <c r="L1941" t="n">
+        <v>19.25883742746064</v>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" s="2" t="n">
+        <v>44946.375</v>
+      </c>
+      <c r="B1942" t="n">
+        <v>1929000</v>
+      </c>
+      <c r="C1942" t="n">
+        <v>2060000</v>
+      </c>
+      <c r="D1942" t="n">
+        <v>1926000</v>
+      </c>
+      <c r="E1942" t="n">
+        <v>2050000</v>
+      </c>
+      <c r="F1942" t="n">
+        <v>30816.94716617</v>
+      </c>
+      <c r="G1942" t="n">
+        <v>61009776961.28999</v>
+      </c>
+      <c r="H1942" t="n">
+        <v>67000</v>
+      </c>
+      <c r="I1942" t="n">
+        <v>1962750</v>
+      </c>
+      <c r="J1942" t="n">
+        <v>1.044452935931728</v>
+      </c>
+      <c r="K1942" t="n">
+        <v>28.68697906365257</v>
+      </c>
+      <c r="L1942" t="n">
+        <v>15.66965570057028</v>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" s="2" t="n">
+        <v>44947.375</v>
+      </c>
+      <c r="B1943" t="n">
+        <v>2049000</v>
+      </c>
+      <c r="C1943" t="n">
+        <v>2091000</v>
+      </c>
+      <c r="D1943" t="n">
+        <v>2020000</v>
+      </c>
+      <c r="E1943" t="n">
+        <v>2025000</v>
+      </c>
+      <c r="F1943" t="n">
+        <v>37878.83663199</v>
+      </c>
+      <c r="G1943" t="n">
+        <v>77803984038.61105</v>
+      </c>
+      <c r="H1943" t="n">
+        <v>35500</v>
+      </c>
+      <c r="I1943" t="n">
+        <v>2116000</v>
+      </c>
+      <c r="J1943" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1943" t="n">
+        <v>28.68697906365257</v>
+      </c>
+      <c r="L1943" t="n">
+        <v>15.66965570057028</v>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" s="2" t="n">
+        <v>44948.375</v>
+      </c>
+      <c r="B1944" t="n">
+        <v>2025000</v>
+      </c>
+      <c r="C1944" t="n">
+        <v>2065000</v>
+      </c>
+      <c r="D1944" t="n">
+        <v>2011000</v>
+      </c>
+      <c r="E1944" t="n">
+        <v>2036000</v>
+      </c>
+      <c r="F1944" t="n">
+        <v>20565.76734139</v>
+      </c>
+      <c r="G1944" t="n">
+        <v>41817658100.83074</v>
+      </c>
+      <c r="H1944" t="n">
+        <v>27000</v>
+      </c>
+      <c r="I1944" t="n">
+        <v>2060500</v>
+      </c>
+      <c r="J1944" t="n">
+        <v>0.9881096821159913</v>
+      </c>
+      <c r="K1944" t="n">
+        <v>28.34588176345383</v>
+      </c>
+      <c r="L1944" t="n">
+        <v>16.6723703015584</v>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" s="2" t="n">
+        <v>44949.375</v>
+      </c>
+      <c r="B1945" t="n">
+        <v>2033000</v>
+      </c>
+      <c r="C1945" t="n">
+        <v>2055000</v>
+      </c>
+      <c r="D1945" t="n">
+        <v>1995000</v>
+      </c>
+      <c r="E1945" t="n">
+        <v>2032000</v>
+      </c>
+      <c r="F1945" t="n">
+        <v>22976.03736418</v>
+      </c>
+      <c r="G1945" t="n">
+        <v>46776456706.50542</v>
+      </c>
+      <c r="H1945" t="n">
+        <v>30000</v>
+      </c>
+      <c r="I1945" t="n">
+        <v>2060000</v>
+      </c>
+      <c r="J1945" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1945" t="n">
+        <v>28.34588176345383</v>
+      </c>
+      <c r="L1945" t="n">
+        <v>16.6723703015584</v>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" s="2" t="n">
+        <v>44950.375</v>
+      </c>
+      <c r="B1946" t="n">
+        <v>2032000</v>
+      </c>
+      <c r="C1946" t="n">
+        <v>2053000</v>
+      </c>
+      <c r="D1946" t="n">
+        <v>1926000</v>
+      </c>
+      <c r="E1946" t="n">
+        <v>1951500</v>
+      </c>
+      <c r="F1946" t="n">
+        <v>30171.07216408</v>
+      </c>
+      <c r="G1946" t="n">
+        <v>60552400812.77796</v>
+      </c>
+      <c r="H1946" t="n">
+        <v>63500</v>
+      </c>
+      <c r="I1946" t="n">
+        <v>2062000</v>
+      </c>
+      <c r="J1946" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1946" t="n">
+        <v>28.34588176345383</v>
+      </c>
+      <c r="L1946" t="n">
+        <v>16.6723703015584</v>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" s="2" t="n">
+        <v>44951.375</v>
+      </c>
+      <c r="B1947" t="n">
+        <v>1950500</v>
+      </c>
+      <c r="C1947" t="n">
+        <v>2036000</v>
+      </c>
+      <c r="D1947" t="n">
+        <v>1904000</v>
+      </c>
+      <c r="E1947" t="n">
+        <v>2008000</v>
+      </c>
+      <c r="F1947" t="n">
+        <v>38782.30756307</v>
+      </c>
+      <c r="G1947" t="n">
+        <v>75787539936.20059</v>
+      </c>
+      <c r="H1947" t="n">
+        <v>66000</v>
+      </c>
+      <c r="I1947" t="n">
+        <v>2014000</v>
+      </c>
+      <c r="J1947" t="n">
+        <v>0.997020854021847</v>
+      </c>
+      <c r="K1947" t="n">
+        <v>28.26143524380104</v>
+      </c>
+      <c r="L1947" t="n">
+        <v>16.92061547444354</v>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" s="2" t="n">
+        <v>44952.375</v>
+      </c>
+      <c r="B1948" t="n">
+        <v>2008000</v>
+      </c>
+      <c r="C1948" t="n">
+        <v>2034000</v>
+      </c>
+      <c r="D1948" t="n">
+        <v>1990000</v>
+      </c>
+      <c r="E1948" t="n">
+        <v>2014000</v>
+      </c>
+      <c r="F1948" t="n">
+        <v>23814.51888877</v>
+      </c>
+      <c r="G1948" t="n">
+        <v>48000120329.83877</v>
+      </c>
+      <c r="H1948" t="n">
+        <v>22000</v>
+      </c>
+      <c r="I1948" t="n">
+        <v>2074000</v>
+      </c>
+      <c r="J1948" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1948" t="n">
+        <v>28.26143524380104</v>
+      </c>
+      <c r="L1948" t="n">
+        <v>16.92061547444354</v>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" s="2" t="n">
+        <v>44953.375</v>
+      </c>
+      <c r="B1949" t="n">
+        <v>2014000</v>
+      </c>
+      <c r="C1949" t="n">
+        <v>2025000</v>
+      </c>
+      <c r="D1949" t="n">
+        <v>1960500</v>
+      </c>
+      <c r="E1949" t="n">
+        <v>2005000</v>
+      </c>
+      <c r="F1949" t="n">
+        <v>24645.68520936</v>
+      </c>
+      <c r="G1949" t="n">
+        <v>48959412787.03065</v>
+      </c>
+      <c r="H1949" t="n">
+        <v>32250</v>
+      </c>
+      <c r="I1949" t="n">
+        <v>2036000</v>
+      </c>
+      <c r="J1949" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1949" t="n">
+        <v>28.26143524380104</v>
+      </c>
+      <c r="L1949" t="n">
+        <v>16.92061547444354</v>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" s="2" t="n">
+        <v>44954.375</v>
+      </c>
+      <c r="B1950" t="n">
+        <v>2006000</v>
+      </c>
+      <c r="C1950" t="n">
+        <v>2016000</v>
+      </c>
+      <c r="D1950" t="n">
+        <v>1970000</v>
+      </c>
+      <c r="E1950" t="n">
+        <v>1987000</v>
+      </c>
+      <c r="F1950" t="n">
+        <v>15830.04379059</v>
+      </c>
+      <c r="G1950" t="n">
+        <v>31602710646.95126</v>
+      </c>
+      <c r="H1950" t="n">
+        <v>23000</v>
+      </c>
+      <c r="I1950" t="n">
+        <v>2038250</v>
+      </c>
+      <c r="J1950" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1950" t="n">
+        <v>28.26143524380104</v>
+      </c>
+      <c r="L1950" t="n">
+        <v>16.92061547444354</v>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" s="2" t="n">
+        <v>44955.375</v>
+      </c>
+      <c r="B1951" t="n">
+        <v>1987000</v>
+      </c>
+      <c r="C1951" t="n">
+        <v>2073000</v>
+      </c>
+      <c r="D1951" t="n">
+        <v>1980500</v>
+      </c>
+      <c r="E1951" t="n">
+        <v>2055000</v>
+      </c>
+      <c r="F1951" t="n">
+        <v>28137.01155837</v>
+      </c>
+      <c r="G1951" t="n">
+        <v>56984495968.64615</v>
+      </c>
+      <c r="H1951" t="n">
+        <v>46250</v>
+      </c>
+      <c r="I1951" t="n">
+        <v>2010000</v>
+      </c>
+      <c r="J1951" t="n">
+        <v>1.022388059701492</v>
+      </c>
+      <c r="K1951" t="n">
+        <v>28.89415394328912</v>
+      </c>
+      <c r="L1951" t="n">
+        <v>15.06062925372213</v>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" s="2" t="n">
+        <v>44956.375</v>
+      </c>
+      <c r="B1952" t="n">
+        <v>2054000</v>
+      </c>
+      <c r="C1952" t="n">
+        <v>2060000</v>
+      </c>
+      <c r="D1952" t="n">
+        <v>1938000</v>
+      </c>
+      <c r="E1952" t="n">
+        <v>1969500</v>
+      </c>
+      <c r="F1952" t="n">
+        <v>34622.60834159</v>
+      </c>
+      <c r="G1952" t="n">
+        <v>69112677403.17416</v>
+      </c>
+      <c r="H1952" t="n">
+        <v>61000</v>
+      </c>
+      <c r="I1952" t="n">
+        <v>2100250</v>
+      </c>
+      <c r="J1952" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1952" t="n">
+        <v>28.89415394328912</v>
+      </c>
+      <c r="L1952" t="n">
+        <v>15.06062925372213</v>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" s="2" t="n">
+        <v>44957.375</v>
+      </c>
+      <c r="B1953" t="n">
+        <v>1969500</v>
+      </c>
+      <c r="C1953" t="n">
+        <v>2011000</v>
+      </c>
+      <c r="D1953" t="n">
+        <v>1952000</v>
+      </c>
+      <c r="E1953" t="n">
+        <v>1992500</v>
+      </c>
+      <c r="F1953" t="n">
+        <v>21724.12665767</v>
+      </c>
+      <c r="G1953" t="n">
+        <v>43002844038.7737</v>
+      </c>
+      <c r="H1953" t="n">
+        <v>29500</v>
+      </c>
+      <c r="I1953" t="n">
+        <v>2030500</v>
+      </c>
+      <c r="J1953" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1953" t="n">
+        <v>28.89415394328912</v>
+      </c>
+      <c r="L1953" t="n">
+        <v>15.06062925372213</v>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" s="2" t="n">
+        <v>44958.375</v>
+      </c>
+      <c r="B1954" t="n">
+        <v>1992500</v>
+      </c>
+      <c r="C1954" t="n">
+        <v>2060000</v>
+      </c>
+      <c r="D1954" t="n">
+        <v>1957500</v>
+      </c>
+      <c r="E1954" t="n">
+        <v>2048000</v>
+      </c>
+      <c r="F1954" t="n">
+        <v>32184.49044106</v>
+      </c>
+      <c r="G1954" t="n">
+        <v>64638302315.18338</v>
+      </c>
+      <c r="H1954" t="n">
+        <v>51250</v>
+      </c>
+      <c r="I1954" t="n">
+        <v>2022000</v>
+      </c>
+      <c r="J1954" t="n">
+        <v>1.012858555885262</v>
+      </c>
+      <c r="K1954" t="n">
+        <v>29.26569103652627</v>
+      </c>
+      <c r="L1954" t="n">
+        <v>13.96843160812213</v>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" s="2" t="n">
+        <v>44959.375</v>
+      </c>
+      <c r="B1955" t="n">
+        <v>2046000</v>
+      </c>
+      <c r="C1955" t="n">
+        <v>2138000</v>
+      </c>
+      <c r="D1955" t="n">
+        <v>2046000</v>
+      </c>
+      <c r="E1955" t="n">
+        <v>2072000</v>
+      </c>
+      <c r="F1955" t="n">
+        <v>39206.03462398</v>
+      </c>
+      <c r="G1955" t="n">
+        <v>82009776024.92003</v>
+      </c>
+      <c r="H1955" t="n">
+        <v>46000</v>
+      </c>
+      <c r="I1955" t="n">
+        <v>2097250</v>
+      </c>
+      <c r="J1955" t="n">
+        <v>0.9879604243652402</v>
+      </c>
+      <c r="K1955" t="n">
+        <v>28.9133445357885</v>
+      </c>
+      <c r="L1955" t="n">
+        <v>15.00421518275315</v>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" s="2" t="n">
+        <v>44960.375</v>
+      </c>
+      <c r="B1956" t="n">
+        <v>2068000</v>
+      </c>
+      <c r="C1956" t="n">
+        <v>2101000</v>
+      </c>
+      <c r="D1956" t="n">
+        <v>2047000</v>
+      </c>
+      <c r="E1956" t="n">
+        <v>2091000</v>
+      </c>
+      <c r="F1956" t="n">
+        <v>28141.30390457</v>
+      </c>
+      <c r="G1956" t="n">
+        <v>58300148769.64866</v>
+      </c>
+      <c r="H1956" t="n">
+        <v>27000</v>
+      </c>
+      <c r="I1956" t="n">
+        <v>2114000</v>
+      </c>
+      <c r="J1956" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1956" t="n">
+        <v>28.9133445357885</v>
+      </c>
+      <c r="L1956" t="n">
+        <v>15.00421518275315</v>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" s="2" t="n">
+        <v>44961.375</v>
+      </c>
+      <c r="B1957" t="n">
+        <v>2089000</v>
+      </c>
+      <c r="C1957" t="n">
+        <v>2130000</v>
+      </c>
+      <c r="D1957" t="n">
+        <v>2080000</v>
+      </c>
+      <c r="E1957" t="n">
+        <v>2098000</v>
+      </c>
+      <c r="F1957" t="n">
+        <v>17423.07542741</v>
+      </c>
+      <c r="G1957" t="n">
+        <v>36635868531.37358</v>
+      </c>
+      <c r="H1957" t="n">
+        <v>25000</v>
+      </c>
+      <c r="I1957" t="n">
+        <v>2116000</v>
+      </c>
+      <c r="J1957" t="n">
+        <v>0.9914933837429112</v>
+      </c>
+      <c r="K1957" t="n">
+        <v>28.66738980911355</v>
+      </c>
+      <c r="L1957" t="n">
+        <v>15.72724170766357</v>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" s="2" t="n">
+        <v>44962.375</v>
+      </c>
+      <c r="B1958" t="n">
+        <v>2098000</v>
+      </c>
+      <c r="C1958" t="n">
+        <v>2110000</v>
+      </c>
+      <c r="D1958" t="n">
+        <v>2040000</v>
+      </c>
+      <c r="E1958" t="n">
+        <v>2058000</v>
+      </c>
+      <c r="F1958" t="n">
+        <v>22748.59299063</v>
+      </c>
+      <c r="G1958" t="n">
+        <v>47263650577.21196</v>
+      </c>
+      <c r="H1958" t="n">
+        <v>35000</v>
+      </c>
+      <c r="I1958" t="n">
+        <v>2123000</v>
+      </c>
+      <c r="J1958" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1958" t="n">
+        <v>28.66738980911355</v>
+      </c>
+      <c r="L1958" t="n">
+        <v>15.72724170766357</v>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" s="2" t="n">
+        <v>44963.375</v>
+      </c>
+      <c r="B1959" t="n">
+        <v>2058000</v>
+      </c>
+      <c r="C1959" t="n">
+        <v>2106000</v>
+      </c>
+      <c r="D1959" t="n">
+        <v>2035000</v>
+      </c>
+      <c r="E1959" t="n">
+        <v>2070000</v>
+      </c>
+      <c r="F1959" t="n">
+        <v>23958.11129238</v>
+      </c>
+      <c r="G1959" t="n">
+        <v>49605827487.33629</v>
+      </c>
+      <c r="H1959" t="n">
+        <v>35500</v>
+      </c>
+      <c r="I1959" t="n">
+        <v>2093000</v>
+      </c>
+      <c r="J1959" t="n">
+        <v>0.9890109890109891</v>
+      </c>
+      <c r="K1959" t="n">
+        <v>28.35236354747494</v>
+      </c>
+      <c r="L1959" t="n">
+        <v>16.65331597461232</v>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" s="2" t="n">
+        <v>44964.375</v>
+      </c>
+      <c r="B1960" t="n">
+        <v>2070000</v>
+      </c>
+      <c r="C1960" t="n">
+        <v>2121000</v>
+      </c>
+      <c r="D1960" t="n">
+        <v>2067000</v>
+      </c>
+      <c r="E1960" t="n">
+        <v>2116000</v>
+      </c>
+      <c r="F1960" t="n">
+        <v>26775.07269888</v>
+      </c>
+      <c r="G1960" t="n">
+        <v>56000556753.14311</v>
+      </c>
+      <c r="H1960" t="n">
+        <v>27000</v>
+      </c>
+      <c r="I1960" t="n">
+        <v>2105500</v>
+      </c>
+      <c r="J1960" t="n">
+        <v>1.004986938969366</v>
+      </c>
+      <c r="K1960" t="n">
+        <v>28.49375505412347</v>
+      </c>
+      <c r="L1960" t="n">
+        <v>16.23767114807868</v>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961" s="2" t="n">
+        <v>44965.375</v>
+      </c>
+      <c r="B1961" t="n">
+        <v>2116000</v>
+      </c>
+      <c r="C1961" t="n">
+        <v>2141000</v>
+      </c>
+      <c r="D1961" t="n">
+        <v>2083000</v>
+      </c>
+      <c r="E1961" t="n">
+        <v>2105000</v>
+      </c>
+      <c r="F1961" t="n">
+        <v>24319.28089463</v>
+      </c>
+      <c r="G1961" t="n">
+        <v>51495885230.20758</v>
+      </c>
+      <c r="H1961" t="n">
+        <v>29000</v>
+      </c>
+      <c r="I1961" t="n">
+        <v>2143000</v>
+      </c>
+      <c r="J1961" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1961" t="n">
+        <v>28.49375505412347</v>
+      </c>
+      <c r="L1961" t="n">
+        <v>16.23767114807868</v>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" s="2" t="n">
+        <v>44966.375</v>
+      </c>
+      <c r="B1962" t="n">
+        <v>2105000</v>
+      </c>
+      <c r="C1962" t="n">
+        <v>2113000</v>
+      </c>
+      <c r="D1962" t="n">
+        <v>1987000</v>
+      </c>
+      <c r="E1962" t="n">
+        <v>1997500</v>
+      </c>
+      <c r="F1962" t="n">
+        <v>38116.9182666</v>
+      </c>
+      <c r="G1962" t="n">
+        <v>78344847803.19926</v>
+      </c>
+      <c r="H1962" t="n">
+        <v>63000</v>
+      </c>
+      <c r="I1962" t="n">
+        <v>2134000</v>
+      </c>
+      <c r="J1962" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1962" t="n">
+        <v>28.49375505412347</v>
+      </c>
+      <c r="L1962" t="n">
+        <v>16.23767114807868</v>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" s="2" t="n">
+        <v>44967.375</v>
+      </c>
+      <c r="B1963" t="n">
+        <v>1997500</v>
+      </c>
+      <c r="C1963" t="n">
+        <v>2007000</v>
+      </c>
+      <c r="D1963" t="n">
+        <v>1942500</v>
+      </c>
+      <c r="E1963" t="n">
+        <v>1968500</v>
+      </c>
+      <c r="F1963" t="n">
+        <v>30826.68228942</v>
+      </c>
+      <c r="G1963" t="n">
+        <v>61127213671.06335</v>
+      </c>
+      <c r="H1963" t="n">
+        <v>32250</v>
+      </c>
+      <c r="I1963" t="n">
+        <v>2060500</v>
+      </c>
+      <c r="J1963" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1963" t="n">
+        <v>28.49375505412347</v>
+      </c>
+      <c r="L1963" t="n">
+        <v>16.23767114807868</v>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" s="2" t="n">
+        <v>44968.375</v>
+      </c>
+      <c r="B1964" t="n">
+        <v>1969000</v>
+      </c>
+      <c r="C1964" t="n">
+        <v>1998500</v>
+      </c>
+      <c r="D1964" t="n">
+        <v>1962000</v>
+      </c>
+      <c r="E1964" t="n">
+        <v>1996500</v>
+      </c>
+      <c r="F1964" t="n">
+        <v>11283.77242243</v>
+      </c>
+      <c r="G1964" t="n">
+        <v>22305340742.64103</v>
+      </c>
+      <c r="H1964" t="n">
+        <v>18250</v>
+      </c>
+      <c r="I1964" t="n">
+        <v>2001250</v>
+      </c>
+      <c r="J1964" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1964" t="n">
+        <v>28.49375505412347</v>
+      </c>
+      <c r="L1964" t="n">
+        <v>16.23767114807868</v>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" s="2" t="n">
+        <v>44969.375</v>
+      </c>
+      <c r="B1965" t="n">
+        <v>1996500</v>
+      </c>
+      <c r="C1965" t="n">
+        <v>1999000</v>
+      </c>
+      <c r="D1965" t="n">
+        <v>1947000</v>
+      </c>
+      <c r="E1965" t="n">
+        <v>1965500</v>
+      </c>
+      <c r="F1965" t="n">
+        <v>12255.51122468</v>
+      </c>
+      <c r="G1965" t="n">
+        <v>24266147372.3966</v>
+      </c>
+      <c r="H1965" t="n">
+        <v>26000</v>
+      </c>
+      <c r="I1965" t="n">
+        <v>2014750</v>
+      </c>
+      <c r="J1965" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1965" t="n">
+        <v>28.49375505412347</v>
+      </c>
+      <c r="L1965" t="n">
+        <v>16.23767114807868</v>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" s="2" t="n">
+        <v>44970.375</v>
+      </c>
+      <c r="B1966" t="n">
+        <v>1965500</v>
+      </c>
+      <c r="C1966" t="n">
+        <v>1977000</v>
+      </c>
+      <c r="D1966" t="n">
+        <v>1908000</v>
+      </c>
+      <c r="E1966" t="n">
+        <v>1957500</v>
+      </c>
+      <c r="F1966" t="n">
+        <v>24013.81481564</v>
+      </c>
+      <c r="G1966" t="n">
+        <v>46633800930.54544</v>
+      </c>
+      <c r="H1966" t="n">
+        <v>34500</v>
+      </c>
+      <c r="I1966" t="n">
+        <v>1991500</v>
+      </c>
+      <c r="J1966" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1966" t="n">
+        <v>28.49375505412347</v>
+      </c>
+      <c r="L1966" t="n">
+        <v>16.23767114807868</v>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" s="2" t="n">
+        <v>44971.375</v>
+      </c>
+      <c r="B1967" t="n">
+        <v>1958500</v>
+      </c>
+      <c r="C1967" t="n">
+        <v>2022000</v>
+      </c>
+      <c r="D1967" t="n">
+        <v>1926500</v>
+      </c>
+      <c r="E1967" t="n">
+        <v>2016000</v>
+      </c>
+      <c r="F1967" t="n">
+        <v>30715.37434156</v>
+      </c>
+      <c r="G1967" t="n">
+        <v>60635709161.76563</v>
+      </c>
+      <c r="H1967" t="n">
+        <v>47750</v>
+      </c>
+      <c r="I1967" t="n">
+        <v>1993000</v>
+      </c>
+      <c r="J1967" t="n">
+        <v>1.011540391369794</v>
+      </c>
+      <c r="K1967" t="n">
+        <v>28.82258413904311</v>
+      </c>
+      <c r="L1967" t="n">
+        <v>15.2710210910821</v>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" s="2" t="n">
+        <v>44972.375</v>
+      </c>
+      <c r="B1968" t="n">
+        <v>2015000</v>
+      </c>
+      <c r="C1968" t="n">
+        <v>2161000</v>
+      </c>
+      <c r="D1968" t="n">
+        <v>2002000</v>
+      </c>
+      <c r="E1968" t="n">
+        <v>2148000</v>
+      </c>
+      <c r="F1968" t="n">
+        <v>40171.95514925</v>
+      </c>
+      <c r="G1968" t="n">
+        <v>83286531918.26604</v>
+      </c>
+      <c r="H1968" t="n">
+        <v>79500</v>
+      </c>
+      <c r="I1968" t="n">
+        <v>2062750</v>
+      </c>
+      <c r="J1968" t="n">
+        <v>1.041328323839535</v>
+      </c>
+      <c r="K1968" t="n">
+        <v>30.01377323023371</v>
+      </c>
+      <c r="L1968" t="n">
+        <v>11.76931441214125</v>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" s="2" t="n">
+        <v>44973.375</v>
+      </c>
+      <c r="B1969" t="n">
+        <v>2148000</v>
+      </c>
+      <c r="C1969" t="n">
+        <v>2238000</v>
+      </c>
+      <c r="D1969" t="n">
+        <v>2109000</v>
+      </c>
+      <c r="E1969" t="n">
+        <v>2119000</v>
+      </c>
+      <c r="F1969" t="n">
+        <v>46336.61980939</v>
+      </c>
+      <c r="G1969" t="n">
+        <v>100552490964.028</v>
+      </c>
+      <c r="H1969" t="n">
+        <v>64500</v>
+      </c>
+      <c r="I1969" t="n">
+        <v>2227500</v>
+      </c>
+      <c r="J1969" t="n">
+        <v>0.951290684624018</v>
+      </c>
+      <c r="K1969" t="n">
+        <v>28.55182288433905</v>
+      </c>
+      <c r="L1969" t="n">
+        <v>16.06697070227937</v>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970" s="2" t="n">
+        <v>44974.375</v>
+      </c>
+      <c r="B1970" t="n">
+        <v>2119000</v>
+      </c>
+      <c r="C1970" t="n">
+        <v>2211000</v>
+      </c>
+      <c r="D1970" t="n">
+        <v>2110000</v>
+      </c>
+      <c r="E1970" t="n">
+        <v>2182000</v>
+      </c>
+      <c r="F1970" t="n">
+        <v>28593.91282163</v>
+      </c>
+      <c r="G1970" t="n">
+        <v>61908380961.2939</v>
+      </c>
+      <c r="H1970" t="n">
+        <v>50500</v>
+      </c>
+      <c r="I1970" t="n">
+        <v>2183500</v>
+      </c>
+      <c r="J1970" t="n">
+        <v>0.9993130295397298</v>
+      </c>
+      <c r="K1970" t="n">
+        <v>28.53220862543064</v>
+      </c>
+      <c r="L1970" t="n">
+        <v>16.1246302140479</v>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" s="2" t="n">
+        <v>44975.375</v>
+      </c>
+      <c r="B1971" t="n">
+        <v>2182000</v>
+      </c>
+      <c r="C1971" t="n">
+        <v>2203000</v>
+      </c>
+      <c r="D1971" t="n">
+        <v>2171000</v>
+      </c>
+      <c r="E1971" t="n">
+        <v>2183000</v>
+      </c>
+      <c r="F1971" t="n">
+        <v>12752.74176602</v>
+      </c>
+      <c r="G1971" t="n">
+        <v>27908690176.67296</v>
+      </c>
+      <c r="H1971" t="n">
+        <v>16000</v>
+      </c>
+      <c r="I1971" t="n">
+        <v>2232500</v>
+      </c>
+      <c r="J1971" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1971" t="n">
+        <v>28.53220862543064</v>
+      </c>
+      <c r="L1971" t="n">
+        <v>16.1246302140479</v>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" s="2" t="n">
+        <v>44976.375</v>
+      </c>
+      <c r="B1972" t="n">
+        <v>2183000</v>
+      </c>
+      <c r="C1972" t="n">
+        <v>2215000</v>
+      </c>
+      <c r="D1972" t="n">
+        <v>2165000</v>
+      </c>
+      <c r="E1972" t="n">
+        <v>2176000</v>
+      </c>
+      <c r="F1972" t="n">
+        <v>17396.48168394</v>
+      </c>
+      <c r="G1972" t="n">
+        <v>38098068319.39229</v>
+      </c>
+      <c r="H1972" t="n">
+        <v>25000</v>
+      </c>
+      <c r="I1972" t="n">
+        <v>2199000</v>
+      </c>
+      <c r="J1972" t="n">
+        <v>0.9895407003183265</v>
+      </c>
+      <c r="K1972" t="n">
+        <v>28.23378170483724</v>
+      </c>
+      <c r="L1972" t="n">
+        <v>17.00190784255035</v>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" s="2" t="n">
+        <v>44977.375</v>
+      </c>
+      <c r="B1973" t="n">
+        <v>2173000</v>
+      </c>
+      <c r="C1973" t="n">
+        <v>2211000</v>
+      </c>
+      <c r="D1973" t="n">
+        <v>2144000</v>
+      </c>
+      <c r="E1973" t="n">
+        <v>2187000</v>
+      </c>
+      <c r="F1973" t="n">
+        <v>23634.93365643</v>
+      </c>
+      <c r="G1973" t="n">
+        <v>51633125983.1783</v>
+      </c>
+      <c r="H1973" t="n">
+        <v>33500</v>
+      </c>
+      <c r="I1973" t="n">
+        <v>2198000</v>
+      </c>
+      <c r="J1973" t="n">
+        <v>0.9949954504094631</v>
+      </c>
+      <c r="K1973" t="n">
+        <v>28.09248434416699</v>
+      </c>
+      <c r="L1973" t="n">
+        <v>17.41727591067226</v>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974" s="2" t="n">
+        <v>44978.375</v>
+      </c>
+      <c r="B1974" t="n">
+        <v>2185000</v>
+      </c>
+      <c r="C1974" t="n">
+        <v>2213000</v>
+      </c>
+      <c r="D1974" t="n">
+        <v>2134000</v>
+      </c>
+      <c r="E1974" t="n">
+        <v>2153000</v>
+      </c>
+      <c r="F1974" t="n">
+        <v>25780.5372663</v>
+      </c>
+      <c r="G1974" t="n">
+        <v>56213801407.57452</v>
+      </c>
+      <c r="H1974" t="n">
+        <v>39500</v>
+      </c>
+      <c r="I1974" t="n">
+        <v>2218500</v>
+      </c>
+      <c r="J1974" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1974" t="n">
+        <v>28.09248434416699</v>
+      </c>
+      <c r="L1974" t="n">
+        <v>17.41727591067226</v>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" s="2" t="n">
+        <v>44979.375</v>
+      </c>
+      <c r="B1975" t="n">
+        <v>2153000</v>
+      </c>
+      <c r="C1975" t="n">
+        <v>2166000</v>
+      </c>
+      <c r="D1975" t="n">
+        <v>2095000</v>
+      </c>
+      <c r="E1975" t="n">
+        <v>2151000</v>
+      </c>
+      <c r="F1975" t="n">
+        <v>21781.47976324</v>
+      </c>
+      <c r="G1975" t="n">
+        <v>46441459151.89287</v>
+      </c>
+      <c r="H1975" t="n">
+        <v>35500</v>
+      </c>
+      <c r="I1975" t="n">
+        <v>2192500</v>
+      </c>
+      <c r="J1975" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1975" t="n">
+        <v>28.09248434416699</v>
+      </c>
+      <c r="L1975" t="n">
+        <v>17.41727591067226</v>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976" s="2" t="n">
+        <v>44980.375</v>
+      </c>
+      <c r="B1976" t="n">
+        <v>2151000</v>
+      </c>
+      <c r="C1976" t="n">
+        <v>2182000</v>
+      </c>
+      <c r="D1976" t="n">
+        <v>2132000</v>
+      </c>
+      <c r="E1976" t="n">
+        <v>2164000</v>
+      </c>
+      <c r="F1976" t="n">
+        <v>19451.10183339</v>
+      </c>
+      <c r="G1976" t="n">
+        <v>42033296911.01125</v>
+      </c>
+      <c r="H1976" t="n">
+        <v>25000</v>
+      </c>
+      <c r="I1976" t="n">
+        <v>2186500</v>
+      </c>
+      <c r="J1976" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1976" t="n">
+        <v>28.09248434416699</v>
+      </c>
+      <c r="L1976" t="n">
+        <v>17.41727591067226</v>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977" s="2" t="n">
+        <v>44981.375</v>
+      </c>
+      <c r="B1977" t="n">
+        <v>2161000</v>
+      </c>
+      <c r="C1977" t="n">
+        <v>2173000</v>
+      </c>
+      <c r="D1977" t="n">
+        <v>2101000</v>
+      </c>
+      <c r="E1977" t="n">
+        <v>2142000</v>
+      </c>
+      <c r="F1977" t="n">
+        <v>20676.0305149</v>
+      </c>
+      <c r="G1977" t="n">
+        <v>44275240785.93021</v>
+      </c>
+      <c r="H1977" t="n">
+        <v>36000</v>
+      </c>
+      <c r="I1977" t="n">
+        <v>2186000</v>
+      </c>
+      <c r="J1977" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1977" t="n">
+        <v>28.09248434416699</v>
+      </c>
+      <c r="L1977" t="n">
+        <v>17.41727591067226</v>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="A1978" s="2" t="n">
+        <v>44982.375</v>
+      </c>
+      <c r="B1978" t="n">
+        <v>2138000</v>
+      </c>
+      <c r="C1978" t="n">
+        <v>2142000</v>
+      </c>
+      <c r="D1978" t="n">
+        <v>2090000</v>
+      </c>
+      <c r="E1978" t="n">
+        <v>2132000</v>
+      </c>
+      <c r="F1978" t="n">
+        <v>10833.04554015</v>
+      </c>
+      <c r="G1978" t="n">
+        <v>22965885757.29468</v>
+      </c>
+      <c r="H1978" t="n">
+        <v>26000</v>
+      </c>
+      <c r="I1978" t="n">
+        <v>2174000</v>
+      </c>
+      <c r="J1978" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1978" t="n">
+        <v>28.09248434416699</v>
+      </c>
+      <c r="L1978" t="n">
+        <v>17.41727591067226</v>
+      </c>
+    </row>
+    <row r="1979">
+      <c r="A1979" s="2" t="n">
+        <v>44983.375</v>
+      </c>
+      <c r="B1979" t="n">
+        <v>2132000</v>
+      </c>
+      <c r="C1979" t="n">
+        <v>2184000</v>
+      </c>
+      <c r="D1979" t="n">
+        <v>2113000</v>
+      </c>
+      <c r="E1979" t="n">
+        <v>2178000</v>
+      </c>
+      <c r="F1979" t="n">
+        <v>12162.92540296</v>
+      </c>
+      <c r="G1979" t="n">
+        <v>26116353592.49711</v>
+      </c>
+      <c r="H1979" t="n">
+        <v>35500</v>
+      </c>
+      <c r="I1979" t="n">
+        <v>2158000</v>
+      </c>
+      <c r="J1979" t="n">
+        <v>1.009267840593142</v>
+      </c>
+      <c r="K1979" t="n">
+        <v>28.35284101093406</v>
+      </c>
+      <c r="L1979" t="n">
+        <v>16.65191238806495</v>
+      </c>
+    </row>
+    <row r="1980">
+      <c r="A1980" s="2" t="n">
+        <v>44984.375</v>
+      </c>
+      <c r="B1980" t="n">
+        <v>2178000</v>
+      </c>
+      <c r="C1980" t="n">
+        <v>2210000</v>
+      </c>
+      <c r="D1980" t="n">
+        <v>2150000</v>
+      </c>
+      <c r="E1980" t="n">
+        <v>2174000</v>
+      </c>
+      <c r="F1980" t="n">
+        <v>20636.19825638</v>
+      </c>
+      <c r="G1980" t="n">
+        <v>45049190282.63448</v>
+      </c>
+      <c r="H1980" t="n">
+        <v>30000</v>
+      </c>
+      <c r="I1980" t="n">
+        <v>2213500</v>
+      </c>
+      <c r="J1980" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1980" t="n">
+        <v>28.35284101093406</v>
+      </c>
+      <c r="L1980" t="n">
+        <v>16.65191238806495</v>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="A1981" s="2" t="n">
+        <v>44985.375</v>
+      </c>
+      <c r="B1981" t="n">
+        <v>2175000</v>
+      </c>
+      <c r="C1981" t="n">
+        <v>2188000</v>
+      </c>
+      <c r="D1981" t="n">
+        <v>2145000</v>
+      </c>
+      <c r="E1981" t="n">
+        <v>2150000</v>
+      </c>
+      <c r="F1981" t="n">
+        <v>15149.45803341</v>
+      </c>
+      <c r="G1981" t="n">
+        <v>32821483880.05073</v>
+      </c>
+      <c r="H1981" t="n">
+        <v>21500</v>
+      </c>
+      <c r="I1981" t="n">
+        <v>2205000</v>
+      </c>
+      <c r="J1981" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1981" t="n">
+        <v>28.35284101093406</v>
+      </c>
+      <c r="L1981" t="n">
+        <v>16.65191238806495</v>
+      </c>
+    </row>
+    <row r="1982">
+      <c r="A1982" s="2" t="n">
+        <v>44986.375</v>
+      </c>
+      <c r="B1982" t="n">
+        <v>2153000</v>
+      </c>
+      <c r="C1982" t="n">
+        <v>2200000</v>
+      </c>
+      <c r="D1982" t="n">
+        <v>2135000</v>
+      </c>
+      <c r="E1982" t="n">
+        <v>2194000</v>
+      </c>
+      <c r="F1982" t="n">
+        <v>17948.88144113</v>
+      </c>
+      <c r="G1982" t="n">
+        <v>39110134338.09386</v>
+      </c>
+      <c r="H1982" t="n">
+        <v>32500</v>
+      </c>
+      <c r="I1982" t="n">
+        <v>2174500</v>
+      </c>
+      <c r="J1982" t="n">
+        <v>1.008967578753736</v>
+      </c>
+      <c r="K1982" t="n">
+        <v>28.60709734559178</v>
+      </c>
+      <c r="L1982" t="n">
+        <v>15.90448184843161</v>
+      </c>
+    </row>
+    <row r="1983">
+      <c r="A1983" s="2" t="n">
+        <v>44987.375</v>
+      </c>
+      <c r="B1983" t="n">
+        <v>2194000</v>
+      </c>
+      <c r="C1983" t="n">
+        <v>2205000</v>
+      </c>
+      <c r="D1983" t="n">
+        <v>2151000</v>
+      </c>
+      <c r="E1983" t="n">
+        <v>2183000</v>
+      </c>
+      <c r="F1983" t="n">
+        <v>17265.46065718</v>
+      </c>
+      <c r="G1983" t="n">
+        <v>37583631220.48354</v>
+      </c>
+      <c r="H1983" t="n">
+        <v>27000</v>
+      </c>
+      <c r="I1983" t="n">
+        <v>2226500</v>
+      </c>
+      <c r="J1983" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1983" t="n">
+        <v>28.60709734559178</v>
+      </c>
+      <c r="L1983" t="n">
+        <v>15.90448184843161</v>
+      </c>
+    </row>
+    <row r="1984">
+      <c r="A1984" s="2" t="n">
+        <v>44988.375</v>
+      </c>
+      <c r="B1984" t="n">
+        <v>2182000</v>
+      </c>
+      <c r="C1984" t="n">
+        <v>2187000</v>
+      </c>
+      <c r="D1984" t="n">
+        <v>2061000</v>
+      </c>
+      <c r="E1984" t="n">
+        <v>2084000</v>
+      </c>
+      <c r="F1984" t="n">
+        <v>31622.52544171</v>
+      </c>
+      <c r="G1984" t="n">
+        <v>66313699267.23187</v>
+      </c>
+      <c r="H1984" t="n">
+        <v>63000</v>
+      </c>
+      <c r="I1984" t="n">
+        <v>2209000</v>
+      </c>
+      <c r="J1984" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1984" t="n">
+        <v>28.60709734559178</v>
+      </c>
+      <c r="L1984" t="n">
+        <v>15.90448184843161</v>
+      </c>
+    </row>
+    <row r="1985">
+      <c r="A1985" s="2" t="n">
+        <v>44989.375</v>
+      </c>
+      <c r="B1985" t="n">
+        <v>2085000</v>
+      </c>
+      <c r="C1985" t="n">
+        <v>2104000</v>
+      </c>
+      <c r="D1985" t="n">
+        <v>2082000</v>
+      </c>
+      <c r="E1985" t="n">
+        <v>2092000</v>
+      </c>
+      <c r="F1985" t="n">
+        <v>9649.959608470001</v>
+      </c>
+      <c r="G1985" t="n">
+        <v>20178260037.04875</v>
+      </c>
+      <c r="H1985" t="n">
+        <v>11000</v>
+      </c>
+      <c r="I1985" t="n">
+        <v>2148000</v>
+      </c>
+      <c r="J1985" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1985" t="n">
+        <v>28.60709734559178</v>
+      </c>
+      <c r="L1985" t="n">
+        <v>15.90448184843161</v>
+      </c>
+    </row>
+    <row r="1986">
+      <c r="A1986" s="2" t="n">
+        <v>44990.375</v>
+      </c>
+      <c r="B1986" t="n">
+        <v>2091000</v>
+      </c>
+      <c r="C1986" t="n">
+        <v>2110000</v>
+      </c>
+      <c r="D1986" t="n">
+        <v>2072000</v>
+      </c>
+      <c r="E1986" t="n">
+        <v>2092000</v>
+      </c>
+      <c r="F1986" t="n">
+        <v>10317.26137593</v>
+      </c>
+      <c r="G1986" t="n">
+        <v>21611792331.45769</v>
+      </c>
+      <c r="H1986" t="n">
+        <v>19000</v>
+      </c>
+      <c r="I1986" t="n">
+        <v>2102000</v>
+      </c>
+      <c r="J1986" t="n">
+        <v>0.9952426260704091</v>
+      </c>
+      <c r="K1986" t="n">
+        <v>28.47100268647859</v>
+      </c>
+      <c r="L1986" t="n">
+        <v>16.30455567408131</v>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987" s="2" t="n">
+        <v>44991.375</v>
+      </c>
+      <c r="B1987" t="n">
+        <v>2092000</v>
+      </c>
+      <c r="C1987" t="n">
+        <v>2097000</v>
+      </c>
+      <c r="D1987" t="n">
+        <v>2066000</v>
+      </c>
+      <c r="E1987" t="n">
+        <v>2080000</v>
+      </c>
+      <c r="F1987" t="n">
+        <v>5199.3835189</v>
+      </c>
+      <c r="G1987" t="n">
+        <v>10814367867.00055</v>
+      </c>
+      <c r="H1987" t="n">
+        <v>15500</v>
+      </c>
+      <c r="I1987" t="n">
+        <v>2111000</v>
+      </c>
+      <c r="J1987" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1987" t="n">
+        <v>28.47100268647859</v>
+      </c>
+      <c r="L1987" t="n">
+        <v>16.30455567408131</v>
       </c>
     </row>
   </sheetData>

--- a/eth.xlsx
+++ b/eth.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2224"/>
+  <dimension ref="A1:L2238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84938,34 +84938,566 @@
         <v>2417000</v>
       </c>
       <c r="C2224" t="n">
-        <v>2424000</v>
+        <v>2450000</v>
       </c>
       <c r="D2224" t="n">
         <v>2406000</v>
       </c>
       <c r="E2224" t="n">
-        <v>2418000</v>
+        <v>2436000</v>
       </c>
       <c r="F2224" t="n">
-        <v>1628.28163609</v>
+        <v>7430.91380487</v>
       </c>
       <c r="G2224" t="n">
-        <v>3934611565.4307</v>
+        <v>18063199382.418</v>
       </c>
       <c r="H2224" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="I2224" t="n">
         <v>2434500</v>
       </c>
       <c r="J2224" t="n">
-        <v>1</v>
+        <v>1.000616142945163</v>
       </c>
       <c r="K2224" t="n">
-        <v>29.22119821739348</v>
+        <v>29.23920265252434</v>
       </c>
       <c r="L2224" t="n">
-        <v>14.09922595729338</v>
+        <v>14.04629880138291</v>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225" s="2" t="n">
+        <v>45229.375</v>
+      </c>
+      <c r="B2225" t="n">
+        <v>2436000</v>
+      </c>
+      <c r="C2225" t="n">
+        <v>2477000</v>
+      </c>
+      <c r="D2225" t="n">
+        <v>2420000</v>
+      </c>
+      <c r="E2225" t="n">
+        <v>2450000</v>
+      </c>
+      <c r="F2225" t="n">
+        <v>13478.32477918</v>
+      </c>
+      <c r="G2225" t="n">
+        <v>33039741783.41948</v>
+      </c>
+      <c r="H2225" t="n">
+        <v>28500</v>
+      </c>
+      <c r="I2225" t="n">
+        <v>2458000</v>
+      </c>
+      <c r="J2225" t="n">
+        <v>0.9967453213995118</v>
+      </c>
+      <c r="K2225" t="n">
+        <v>29.14403844535584</v>
+      </c>
+      <c r="L2225" t="n">
+        <v>14.32605047330681</v>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="A2226" s="2" t="n">
+        <v>45230.375</v>
+      </c>
+      <c r="B2226" t="n">
+        <v>2450000</v>
+      </c>
+      <c r="C2226" t="n">
+        <v>2465000</v>
+      </c>
+      <c r="D2226" t="n">
+        <v>2420000</v>
+      </c>
+      <c r="E2226" t="n">
+        <v>2464000</v>
+      </c>
+      <c r="F2226" t="n">
+        <v>14574.68334448</v>
+      </c>
+      <c r="G2226" t="n">
+        <v>35640523107.24779</v>
+      </c>
+      <c r="H2226" t="n">
+        <v>22500</v>
+      </c>
+      <c r="I2226" t="n">
+        <v>2478500</v>
+      </c>
+      <c r="J2226" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2226" t="n">
+        <v>29.14403844535584</v>
+      </c>
+      <c r="L2226" t="n">
+        <v>14.32605047330681</v>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" s="2" t="n">
+        <v>45231.375</v>
+      </c>
+      <c r="B2227" t="n">
+        <v>2465000</v>
+      </c>
+      <c r="C2227" t="n">
+        <v>2515000</v>
+      </c>
+      <c r="D2227" t="n">
+        <v>2440000</v>
+      </c>
+      <c r="E2227" t="n">
+        <v>2504000</v>
+      </c>
+      <c r="F2227" t="n">
+        <v>20122.66665763</v>
+      </c>
+      <c r="G2227" t="n">
+        <v>49802624189.48707</v>
+      </c>
+      <c r="H2227" t="n">
+        <v>37500</v>
+      </c>
+      <c r="I2227" t="n">
+        <v>2487500</v>
+      </c>
+      <c r="J2227" t="n">
+        <v>1.006633165829146</v>
+      </c>
+      <c r="K2227" t="n">
+        <v>29.33735568529488</v>
+      </c>
+      <c r="L2227" t="n">
+        <v>13.7577609588584</v>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" s="2" t="n">
+        <v>45232.375</v>
+      </c>
+      <c r="B2228" t="n">
+        <v>2503000</v>
+      </c>
+      <c r="C2228" t="n">
+        <v>2543000</v>
+      </c>
+      <c r="D2228" t="n">
+        <v>2431000</v>
+      </c>
+      <c r="E2228" t="n">
+        <v>2447000</v>
+      </c>
+      <c r="F2228" t="n">
+        <v>21396.94765181</v>
+      </c>
+      <c r="G2228" t="n">
+        <v>53156934234.83552</v>
+      </c>
+      <c r="H2228" t="n">
+        <v>56000</v>
+      </c>
+      <c r="I2228" t="n">
+        <v>2540500</v>
+      </c>
+      <c r="J2228" t="n">
+        <v>0.963196221216296</v>
+      </c>
+      <c r="K2228" t="n">
+        <v>28.25763013655444</v>
+      </c>
+      <c r="L2228" t="n">
+        <v>16.9318012463399</v>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" s="2" t="n">
+        <v>45233.375</v>
+      </c>
+      <c r="B2229" t="n">
+        <v>2450000</v>
+      </c>
+      <c r="C2229" t="n">
+        <v>2466000</v>
+      </c>
+      <c r="D2229" t="n">
+        <v>2405000</v>
+      </c>
+      <c r="E2229" t="n">
+        <v>2465000</v>
+      </c>
+      <c r="F2229" t="n">
+        <v>16119.05250071</v>
+      </c>
+      <c r="G2229" t="n">
+        <v>39138005557.92379</v>
+      </c>
+      <c r="H2229" t="n">
+        <v>30500</v>
+      </c>
+      <c r="I2229" t="n">
+        <v>2506000</v>
+      </c>
+      <c r="J2229" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2229" t="n">
+        <v>28.25763013655444</v>
+      </c>
+      <c r="L2229" t="n">
+        <v>16.9318012463399</v>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" s="2" t="n">
+        <v>45234.375</v>
+      </c>
+      <c r="B2230" t="n">
+        <v>2465000</v>
+      </c>
+      <c r="C2230" t="n">
+        <v>2507000</v>
+      </c>
+      <c r="D2230" t="n">
+        <v>2454000</v>
+      </c>
+      <c r="E2230" t="n">
+        <v>2489000</v>
+      </c>
+      <c r="F2230" t="n">
+        <v>10745.49912624</v>
+      </c>
+      <c r="G2230" t="n">
+        <v>26578812972.62308</v>
+      </c>
+      <c r="H2230" t="n">
+        <v>26500</v>
+      </c>
+      <c r="I2230" t="n">
+        <v>2495500</v>
+      </c>
+      <c r="J2230" t="n">
+        <v>0.9973953115608094</v>
+      </c>
+      <c r="K2230" t="n">
+        <v>28.18402781401884</v>
+      </c>
+      <c r="L2230" t="n">
+        <v>17.14816802329794</v>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231" s="2" t="n">
+        <v>45235.375</v>
+      </c>
+      <c r="B2231" t="n">
+        <v>2490000</v>
+      </c>
+      <c r="C2231" t="n">
+        <v>2564000</v>
+      </c>
+      <c r="D2231" t="n">
+        <v>2480000</v>
+      </c>
+      <c r="E2231" t="n">
+        <v>2541000</v>
+      </c>
+      <c r="F2231" t="n">
+        <v>20156.45084589</v>
+      </c>
+      <c r="G2231" t="n">
+        <v>50998968560.73598</v>
+      </c>
+      <c r="H2231" t="n">
+        <v>42000</v>
+      </c>
+      <c r="I2231" t="n">
+        <v>2516500</v>
+      </c>
+      <c r="J2231" t="n">
+        <v>1.009735744089012</v>
+      </c>
+      <c r="K2231" t="n">
+        <v>28.45842029621373</v>
+      </c>
+      <c r="L2231" t="n">
+        <v>16.3415437898669</v>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232" s="2" t="n">
+        <v>45236.375</v>
+      </c>
+      <c r="B2232" t="n">
+        <v>2541000</v>
+      </c>
+      <c r="C2232" t="n">
+        <v>2555000</v>
+      </c>
+      <c r="D2232" t="n">
+        <v>2499000</v>
+      </c>
+      <c r="E2232" t="n">
+        <v>2536000</v>
+      </c>
+      <c r="F2232" t="n">
+        <v>16088.29720154</v>
+      </c>
+      <c r="G2232" t="n">
+        <v>40716137857.94618</v>
+      </c>
+      <c r="H2232" t="n">
+        <v>28000</v>
+      </c>
+      <c r="I2232" t="n">
+        <v>2583000</v>
+      </c>
+      <c r="J2232" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2232" t="n">
+        <v>28.45842029621373</v>
+      </c>
+      <c r="L2232" t="n">
+        <v>16.3415437898669</v>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" s="2" t="n">
+        <v>45237.375</v>
+      </c>
+      <c r="B2233" t="n">
+        <v>2540000</v>
+      </c>
+      <c r="C2233" t="n">
+        <v>2545000</v>
+      </c>
+      <c r="D2233" t="n">
+        <v>2489000</v>
+      </c>
+      <c r="E2233" t="n">
+        <v>2524000</v>
+      </c>
+      <c r="F2233" t="n">
+        <v>14516.09523972</v>
+      </c>
+      <c r="G2233" t="n">
+        <v>36576203122.56453</v>
+      </c>
+      <c r="H2233" t="n">
+        <v>28000</v>
+      </c>
+      <c r="I2233" t="n">
+        <v>2568000</v>
+      </c>
+      <c r="J2233" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2233" t="n">
+        <v>28.45842029621373</v>
+      </c>
+      <c r="L2233" t="n">
+        <v>16.3415437898669</v>
+      </c>
+    </row>
+    <row r="2234">
+      <c r="A2234" s="2" t="n">
+        <v>45238.375</v>
+      </c>
+      <c r="B2234" t="n">
+        <v>2524000</v>
+      </c>
+      <c r="C2234" t="n">
+        <v>2530000</v>
+      </c>
+      <c r="D2234" t="n">
+        <v>2502000</v>
+      </c>
+      <c r="E2234" t="n">
+        <v>2518000</v>
+      </c>
+      <c r="F2234" t="n">
+        <v>11367.46446311</v>
+      </c>
+      <c r="G2234" t="n">
+        <v>28598478731.92906</v>
+      </c>
+      <c r="H2234" t="n">
+        <v>14000</v>
+      </c>
+      <c r="I2234" t="n">
+        <v>2552000</v>
+      </c>
+      <c r="J2234" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2234" t="n">
+        <v>28.45842029621373</v>
+      </c>
+      <c r="L2234" t="n">
+        <v>16.3415437898669</v>
+      </c>
+    </row>
+    <row r="2235">
+      <c r="A2235" s="2" t="n">
+        <v>45239.375</v>
+      </c>
+      <c r="B2235" t="n">
+        <v>2518000</v>
+      </c>
+      <c r="C2235" t="n">
+        <v>2868000</v>
+      </c>
+      <c r="D2235" t="n">
+        <v>2513000</v>
+      </c>
+      <c r="E2235" t="n">
+        <v>2855000</v>
+      </c>
+      <c r="F2235" t="n">
+        <v>89935.54953643</v>
+      </c>
+      <c r="G2235" t="n">
+        <v>240475254393.8201</v>
+      </c>
+      <c r="H2235" t="n">
+        <v>177500</v>
+      </c>
+      <c r="I2235" t="n">
+        <v>2532000</v>
+      </c>
+      <c r="J2235" t="n">
+        <v>1.127567140600316</v>
+      </c>
+      <c r="K2235" t="n">
+        <v>32.08877959940372</v>
+      </c>
+      <c r="L2235" t="n">
+        <v>5.669473744103468</v>
+      </c>
+    </row>
+    <row r="2236">
+      <c r="A2236" s="2" t="n">
+        <v>45240.375</v>
+      </c>
+      <c r="B2236" t="n">
+        <v>2855000</v>
+      </c>
+      <c r="C2236" t="n">
+        <v>2875000</v>
+      </c>
+      <c r="D2236" t="n">
+        <v>2781000</v>
+      </c>
+      <c r="E2236" t="n">
+        <v>2792000</v>
+      </c>
+      <c r="F2236" t="n">
+        <v>56254.72441588</v>
+      </c>
+      <c r="G2236" t="n">
+        <v>158892912404.1446</v>
+      </c>
+      <c r="H2236" t="n">
+        <v>47000</v>
+      </c>
+      <c r="I2236" t="n">
+        <v>3032500</v>
+      </c>
+      <c r="J2236" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2236" t="n">
+        <v>32.08877959940372</v>
+      </c>
+      <c r="L2236" t="n">
+        <v>5.669473744103468</v>
+      </c>
+    </row>
+    <row r="2237">
+      <c r="A2237" s="2" t="n">
+        <v>45241.375</v>
+      </c>
+      <c r="B2237" t="n">
+        <v>2791000</v>
+      </c>
+      <c r="C2237" t="n">
+        <v>2799000</v>
+      </c>
+      <c r="D2237" t="n">
+        <v>2725000</v>
+      </c>
+      <c r="E2237" t="n">
+        <v>2748000</v>
+      </c>
+      <c r="F2237" t="n">
+        <v>23809.43564358</v>
+      </c>
+      <c r="G2237" t="n">
+        <v>65627597466.7676</v>
+      </c>
+      <c r="H2237" t="n">
+        <v>37000</v>
+      </c>
+      <c r="I2237" t="n">
+        <v>2838000</v>
+      </c>
+      <c r="J2237" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2237" t="n">
+        <v>32.08877959940372</v>
+      </c>
+      <c r="L2237" t="n">
+        <v>5.669473744103468</v>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="A2238" s="2" t="n">
+        <v>45242.375</v>
+      </c>
+      <c r="B2238" t="n">
+        <v>2748000</v>
+      </c>
+      <c r="C2238" t="n">
+        <v>2750000</v>
+      </c>
+      <c r="D2238" t="n">
+        <v>2702000</v>
+      </c>
+      <c r="E2238" t="n">
+        <v>2731000</v>
+      </c>
+      <c r="F2238" t="n">
+        <v>8401.303443569999</v>
+      </c>
+      <c r="G2238" t="n">
+        <v>22928338268.13887</v>
+      </c>
+      <c r="H2238" t="n">
+        <v>24000</v>
+      </c>
+      <c r="I2238" t="n">
+        <v>2785000</v>
+      </c>
+      <c r="J2238" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2238" t="n">
+        <v>32.08877959940372</v>
+      </c>
+      <c r="L2238" t="n">
+        <v>5.669473744103468</v>
       </c>
     </row>
   </sheetData>
